--- a/Trabalho 2/Meta 2/ResultadosJP.xlsx
+++ b/Trabalho 2/Meta 2/ResultadosJP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Documents\GitHub\Projeto-IAA\Trabalho 2\Meta 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C820E17E-D03F-421C-9714-7A08ED53B3F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3280D69-D933-4F04-AA0B-FF93E321AB73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="4" xr2:uid="{1C22F075-1BF0-EA43-8A90-9BDC22ECA8ED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="345">
   <si>
     <t>Trepa Colinas</t>
   </si>
@@ -948,6 +948,129 @@
   </si>
   <si>
     <t>2251930p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 2 14 9 8 11 7 12 4 13 10 17 1 15 16 5 6</t>
+  </si>
+  <si>
+    <t>2260942p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>4 5 13 14 16 12 9 11 8 6 3 1 15 2 17 10 7</t>
+  </si>
+  <si>
+    <t>2261634p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 16 4 7 13 10 15 17 2 14 3 6 11 9 8 12 5</t>
+  </si>
+  <si>
+    <t>2261930p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 7 8 11 9 12 16 6 5 13 4 2 10 1 15 17 14</t>
+  </si>
+  <si>
+    <t>2262323p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 6 12 9 16 13 4 14 2 17 15 1 10 5 7 8 11</t>
+  </si>
+  <si>
+    <t>2262515p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 6 5 13 7 8 11 9 12 16 4 10 1 15 17 2 14</t>
+  </si>
+  <si>
+    <t>2262701p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 6 5 16 4 14 2 13 7 8 11 12 9 10 1 15 17</t>
+  </si>
+  <si>
+    <t>2263034p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 10 12 9 16 13 4 14 17 15 2 3 6 5 7 8 11</t>
+  </si>
+  <si>
+    <t>3 5 13 14 17 15 2 16 9 12 6 7 8 11 4 10 1</t>
+  </si>
+  <si>
+    <t>2263230p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2263447p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>10 3 6 5 13 7 8 11 9 12 16 4 14 2 17 15 1</t>
+  </si>
+  <si>
+    <t>2263637p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>9 12 11 8 7 6 3 2 17 15 1 10 4 13 5 16 14</t>
+  </si>
+  <si>
+    <t>2263828p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>Teste #24</t>
+  </si>
+  <si>
+    <t>Teste #25</t>
+  </si>
+  <si>
+    <t>Teste #26</t>
+  </si>
+  <si>
+    <t>Teste #27</t>
+  </si>
+  <si>
+    <t>3 6 7 5 13 4 14 2 17 15 1 10 16 12 9 11 8</t>
+  </si>
+  <si>
+    <t>2264125p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 10 15 17 2 14 13 5 7 8 11 16 4 3 6 9 12</t>
+  </si>
+  <si>
+    <t>2264433p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 4 13 10 1 15 17 2 14 16 9 12 11 8 7 6 5</t>
+  </si>
+  <si>
+    <t>2264742p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 6 9 12 11 8 7 5 13 10 1 15 17 2 14 4 16</t>
+  </si>
+  <si>
+    <t>2265029p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>Teste #28</t>
+  </si>
+  <si>
+    <t>1 10 16 9 12 11 8 7 3 2 15 17 14 4 13 5 6</t>
+  </si>
+  <si>
+    <t>2265244p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 10 13 5 6 12 16 17 1 2 15 4 14 9 11 8 7</t>
+  </si>
+  <si>
+    <t>2265625p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 6 7 5 13 4 14 2 17 15 1 10 16 9 12 11 8</t>
+  </si>
+  <si>
+    <t>2270703p.m._HillClimberOptimiser.csv</t>
   </si>
 </sst>
 </file>
@@ -4408,10 +4531,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C91D61-F5E8-A647-82E8-F0EDF9A7AD79}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4885,8 +5008,23 @@
       <c r="D20">
         <v>10000</v>
       </c>
+      <c r="E20">
+        <v>8764</v>
+      </c>
       <c r="G20">
         <v>10000</v>
+      </c>
+      <c r="H20" t="s">
+        <v>304</v>
+      </c>
+      <c r="I20">
+        <v>1516</v>
+      </c>
+      <c r="J20">
+        <v>131</v>
+      </c>
+      <c r="K20" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -4894,10 +5032,77 @@
         <v>264</v>
       </c>
       <c r="D21">
+        <v>10000</v>
+      </c>
+      <c r="E21">
+        <v>1516</v>
+      </c>
+      <c r="G21">
+        <v>10000</v>
+      </c>
+      <c r="H21" t="s">
+        <v>306</v>
+      </c>
+      <c r="I21">
+        <v>5613</v>
+      </c>
+      <c r="J21">
+        <v>129</v>
+      </c>
+      <c r="K21" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>267</v>
+      </c>
+      <c r="D22">
+        <v>10000</v>
+      </c>
+      <c r="E22">
+        <v>5613</v>
+      </c>
+      <c r="G22">
+        <v>10000</v>
+      </c>
+      <c r="H22" t="s">
+        <v>308</v>
+      </c>
+      <c r="I22">
+        <v>8477</v>
+      </c>
+      <c r="J22">
+        <v>137</v>
+      </c>
+      <c r="K22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>270</v>
+      </c>
+      <c r="D23">
         <v>100000</v>
       </c>
-      <c r="G21">
+      <c r="E23">
+        <v>3470</v>
+      </c>
+      <c r="G23">
         <v>100000</v>
+      </c>
+      <c r="H23" t="s">
+        <v>341</v>
+      </c>
+      <c r="I23">
+        <v>7392</v>
+      </c>
+      <c r="J23">
+        <v>125</v>
+      </c>
+      <c r="K23" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="21" x14ac:dyDescent="0.4">
@@ -5304,93 +5509,457 @@
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A48" s="1" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>256</v>
+      </c>
+      <c r="D46">
+        <v>5000</v>
+      </c>
+      <c r="E46">
+        <v>2130</v>
+      </c>
+      <c r="G46">
+        <v>5000</v>
+      </c>
+      <c r="H46" t="s">
+        <v>310</v>
+      </c>
+      <c r="I46">
+        <v>2466</v>
+      </c>
+      <c r="J46">
+        <v>94</v>
+      </c>
+      <c r="K46" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>257</v>
+      </c>
+      <c r="D47">
+        <v>5000</v>
+      </c>
+      <c r="E47">
+        <v>2466</v>
+      </c>
+      <c r="G47">
+        <v>5000</v>
+      </c>
+      <c r="H47" t="s">
+        <v>312</v>
+      </c>
+      <c r="I47">
+        <v>4834</v>
+      </c>
+      <c r="J47">
+        <v>89</v>
+      </c>
+      <c r="K47" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>258</v>
+      </c>
+      <c r="D48">
+        <v>5000</v>
+      </c>
+      <c r="E48">
+        <v>4834</v>
+      </c>
+      <c r="G48">
+        <v>5000</v>
+      </c>
+      <c r="H48" t="s">
+        <v>314</v>
+      </c>
+      <c r="I48">
+        <v>4898</v>
+      </c>
+      <c r="J48">
+        <v>84</v>
+      </c>
+      <c r="K48" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>264</v>
+      </c>
+      <c r="D49">
+        <v>7500</v>
+      </c>
+      <c r="E49">
+        <v>4898</v>
+      </c>
+      <c r="G49">
+        <v>7500</v>
+      </c>
+      <c r="H49" t="s">
+        <v>316</v>
+      </c>
+      <c r="I49">
+        <v>7440</v>
+      </c>
+      <c r="J49">
+        <v>99</v>
+      </c>
+      <c r="K49" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>267</v>
+      </c>
+      <c r="D50">
+        <v>7500</v>
+      </c>
+      <c r="E50">
+        <v>7440</v>
+      </c>
+      <c r="G50">
+        <v>7500</v>
+      </c>
+      <c r="H50" t="s">
+        <v>318</v>
+      </c>
+      <c r="I50">
+        <v>7491</v>
+      </c>
+      <c r="J50">
+        <v>95</v>
+      </c>
+      <c r="K50" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>270</v>
+      </c>
+      <c r="D51">
+        <v>7500</v>
+      </c>
+      <c r="E51">
+        <v>7491</v>
+      </c>
+      <c r="G51">
+        <v>7500</v>
+      </c>
+      <c r="H51" t="s">
+        <v>319</v>
+      </c>
+      <c r="I51">
+        <v>7329</v>
+      </c>
+      <c r="J51">
+        <v>104</v>
+      </c>
+      <c r="K51" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>273</v>
+      </c>
+      <c r="D52">
+        <v>7500</v>
+      </c>
+      <c r="E52">
+        <v>7329</v>
+      </c>
+      <c r="G52">
+        <v>7500</v>
+      </c>
+      <c r="H52" t="s">
+        <v>322</v>
+      </c>
+      <c r="I52">
+        <v>7453</v>
+      </c>
+      <c r="J52">
+        <v>92</v>
+      </c>
+      <c r="K52" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>274</v>
+      </c>
+      <c r="D53">
+        <v>7500</v>
+      </c>
+      <c r="E53">
+        <v>7453</v>
+      </c>
+      <c r="G53">
+        <v>7500</v>
+      </c>
+      <c r="H53" t="s">
+        <v>324</v>
+      </c>
+      <c r="I53">
+        <v>7396</v>
+      </c>
+      <c r="J53">
+        <v>108</v>
+      </c>
+      <c r="K53" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>275</v>
+      </c>
+      <c r="D54">
+        <v>10000</v>
+      </c>
+      <c r="E54">
+        <v>7396</v>
+      </c>
+      <c r="G54">
+        <v>10000</v>
+      </c>
+      <c r="H54" t="s">
+        <v>330</v>
+      </c>
+      <c r="I54">
+        <v>9877</v>
+      </c>
+      <c r="J54">
+        <v>83</v>
+      </c>
+      <c r="K54" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>326</v>
+      </c>
+      <c r="D55">
+        <v>10000</v>
+      </c>
+      <c r="E55">
+        <v>9877</v>
+      </c>
+      <c r="G55">
+        <v>10000</v>
+      </c>
+      <c r="H55" t="s">
+        <v>332</v>
+      </c>
+      <c r="I55">
+        <v>9963</v>
+      </c>
+      <c r="J55">
+        <v>95</v>
+      </c>
+      <c r="K55" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>327</v>
+      </c>
+      <c r="D56">
+        <v>10000</v>
+      </c>
+      <c r="E56">
+        <v>9963</v>
+      </c>
+      <c r="G56">
+        <v>10000</v>
+      </c>
+      <c r="H56" t="s">
+        <v>334</v>
+      </c>
+      <c r="I56">
+        <v>9836</v>
+      </c>
+      <c r="J56">
+        <v>89</v>
+      </c>
+      <c r="K56" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>328</v>
+      </c>
+      <c r="D57">
+        <v>10000</v>
+      </c>
+      <c r="E57">
+        <v>9836</v>
+      </c>
+      <c r="G57">
+        <v>10000</v>
+      </c>
+      <c r="H57" t="s">
+        <v>336</v>
+      </c>
+      <c r="I57">
+        <v>9689</v>
+      </c>
+      <c r="J57">
+        <v>87</v>
+      </c>
+      <c r="K57" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>329</v>
+      </c>
+      <c r="D58">
+        <v>10000</v>
+      </c>
+      <c r="E58">
+        <v>9689</v>
+      </c>
+      <c r="G58">
+        <v>10000</v>
+      </c>
+      <c r="H58" t="s">
+        <v>339</v>
+      </c>
+      <c r="I58">
+        <v>9891</v>
+      </c>
+      <c r="J58">
+        <v>95</v>
+      </c>
+      <c r="K58" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>338</v>
+      </c>
+      <c r="D59">
+        <v>100000</v>
+      </c>
+      <c r="E59">
+        <v>7396</v>
+      </c>
+      <c r="G59">
+        <v>100000</v>
+      </c>
+      <c r="H59" t="s">
+        <v>343</v>
+      </c>
+      <c r="I59">
+        <v>99958</v>
+      </c>
+      <c r="J59">
+        <v>83</v>
+      </c>
+      <c r="K59" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D64" t="s">
         <v>6</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H64" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D49" t="s">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
         <v>5</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E65" t="s">
         <v>2</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F65" t="s">
         <v>205</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H65" t="s">
         <v>10</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I65" t="s">
         <v>8</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J65" t="s">
         <v>9</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K65" t="s">
         <v>11</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L65" t="s">
         <v>12</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M65" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Trabalho 2/Meta 2/ResultadosJP.xlsx
+++ b/Trabalho 2/Meta 2/ResultadosJP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Documents\GitHub\Projeto-IAA\Trabalho 2\Meta 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3280D69-D933-4F04-AA0B-FF93E321AB73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22BB6DC-29CC-445C-8612-827210053E61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="4" xr2:uid="{1C22F075-1BF0-EA43-8A90-9BDC22ECA8ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="3" xr2:uid="{1C22F075-1BF0-EA43-8A90-9BDC22ECA8ED}"/>
   </bookViews>
   <sheets>
     <sheet name="NoObstacles" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="366">
   <si>
     <t>Trepa Colinas</t>
   </si>
@@ -383,66 +383,21 @@
     <t>Mesmo assim, o trepa colinas pode demorar muitas iterações a encontrar a solução</t>
   </si>
   <si>
-    <t>2,3,1,4,5,7,8,9,6</t>
-  </si>
-  <si>
-    <t>3,1,4,6,5,7,8,9,2</t>
-  </si>
-  <si>
-    <t>0964043p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>0964539p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
     <t>3 5 6 4 1 2 9 8 7</t>
   </si>
   <si>
-    <t>0965204p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
     <t>6 9 5 7 8 2 4 1 3</t>
   </si>
   <si>
-    <t>0965419p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
     <t>3 5 6 1 4 2 9 7 8</t>
   </si>
   <si>
-    <t>0965537p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>1 4 2 3 7 8 6 9 5</t>
-  </si>
-  <si>
-    <t>0965707p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>4 7 8 9 5 6 3 1 2</t>
-  </si>
-  <si>
-    <t>0965902p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
     <t>3 6 9 8 7 5 2 1 4</t>
   </si>
   <si>
-    <t>0970016p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>1 2 5 4 9 8 7 6 3</t>
-  </si>
-  <si>
-    <t>0971754p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
     <t>3 6 9 8 7 5 4 1 2</t>
   </si>
   <si>
-    <t>0972147p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
     <t>Teste #11</t>
   </si>
   <si>
@@ -452,204 +407,21 @@
     <t>Teste #12</t>
   </si>
   <si>
-    <t>3 6 7 8 9 5 4 2 1</t>
-  </si>
-  <si>
-    <t>0972935p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>0973254p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
     <t>1 4 2 3 6 7 8 9 5</t>
   </si>
   <si>
-    <t>0973516p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
     <t>3 6 5 4 1 2 9 8 7</t>
   </si>
   <si>
-    <t>0973615p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>1 2 4 3 5 9 8 7 6</t>
-  </si>
-  <si>
-    <t>0973712p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>3 1 2 4 9 8 7 5 6</t>
-  </si>
-  <si>
-    <t>0973834p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>1 9 8 7 6 3 5 4 2</t>
-  </si>
-  <si>
-    <t>0974151p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>1 2 4 5 3 6 7 8 9</t>
-  </si>
-  <si>
-    <t>0974353p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>0974550p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>0974819p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
     <t>3 12 15 2 13 17 1 10 8 11 6 7 5 9 14 16 4</t>
   </si>
   <si>
-    <t>1053316p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>3 4 13 11 15 17 14 10 2 1 5 9 16 8 12 7 6</t>
-  </si>
-  <si>
-    <t>1053624p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>15 6 12 5 7 13 14 4 2 17 1 10 16 3 9 11 8</t>
-  </si>
-  <si>
-    <t>1053810p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>3 7 6 16 11 17 2 15 14 1 13 5 12 4 10 8 9</t>
-  </si>
-  <si>
-    <t>1053918p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>3 15 1 4 13 7 11 8 12 9 16 17 14 10 5 2 6</t>
-  </si>
-  <si>
-    <t>1054034p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>3 1 17 15 12 16 8 11 5 2 10 14 9 7 6 13 4</t>
-  </si>
-  <si>
-    <t>1054215p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>16 9 12 11 8 7 6 15 1 17 10 14 13 5 2 4 3</t>
-  </si>
-  <si>
-    <t>1054346p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>10 3 9 12 13 5 16 2 17 14 4 1 15 6 11 8 7</t>
-  </si>
-  <si>
-    <t>1054557p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>3 12 6 7 5 8 11 9 16 14 17 10 1 2 13 4 15</t>
-  </si>
-  <si>
-    <t>1054842p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>1 4 10 17 15 13 16 5 7 8 6 3 2 14 11 9 12</t>
-  </si>
-  <si>
-    <t>1055201p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>3 6 8 11 7 13 9 16 12 5 14 4 10 1 2 15 17</t>
-  </si>
-  <si>
-    <t>1055324p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>4 3 6 5 7 12 10 1 15 17 14 2 13 16 11 8 9</t>
-  </si>
-  <si>
-    <t>1055444p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>O melhor resultado está a ser encontrado perto da 100ª iteracao. Vamos aumentar o numero de iterações.</t>
-  </si>
-  <si>
-    <t>4 13 16 9 12 5 6 3 10 1 17 15 2 14 11 8 7</t>
-  </si>
-  <si>
-    <t>1055746p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>1 10 17 15 2 14 4 8 7 6 3 5 13 16 12 9 11</t>
-  </si>
-  <si>
-    <t>1055936p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>3 6 13 14 2 17 15 1 10 4 16 9 11 8 7 5 12</t>
-  </si>
-  <si>
-    <t>1060120p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>3 6 7 8 11 9 12 5 13 16 4 10 1 17 14 2 15</t>
-  </si>
-  <si>
-    <t>1060304p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>3 4 10 1 15 17 2 14 13 16 9 5 6 7 8 11 12</t>
-  </si>
-  <si>
-    <t>1060441p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>3 10 1 15 17 2 14 4 13 16 11 8 7 6 5 9 12</t>
-  </si>
-  <si>
-    <t>1060610p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>3 2 14 4 13 16 12 9 5 6 7 8 11 17 15 1 10</t>
-  </si>
-  <si>
-    <t>1060746p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>1 15 17 14 2 10 3 6 7 8 11 9 12 16 4 13 5</t>
-  </si>
-  <si>
-    <t>1060938p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>1 10 17 15 2 14 4 13 16 12 9 5 3 6 7 8 11</t>
-  </si>
-  <si>
-    <t>1061233p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
     <t>Teste #13</t>
   </si>
   <si>
     <t>Teste #14</t>
   </si>
   <si>
-    <t>1 15 17 2 10 3 6 5 13 4 14 16 12 9 11 8 7</t>
-  </si>
-  <si>
-    <t>1061520p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>3 7 8 11 12 9 16 5 6 13 4 14 2 17 15 1 10</t>
-  </si>
-  <si>
-    <t>1061833p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
     <t>Recristalização simulada</t>
   </si>
   <si>
@@ -794,18 +566,6 @@
     <t>Resultados muito melhores que o algoritmo de pesquisa aleatória</t>
   </si>
   <si>
-    <t>1 2 4 3 6 5 9 8 7</t>
-  </si>
-  <si>
-    <t>2232640p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>3 6 7 8 9 5 4 1 2</t>
-  </si>
-  <si>
-    <t>2232840p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
     <t>Teste #15</t>
   </si>
   <si>
@@ -815,48 +575,18 @@
     <t>Teste #17</t>
   </si>
   <si>
-    <t>1 4 2 5 9 8 7 6 3</t>
-  </si>
-  <si>
-    <t>2233931p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>2234105p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>1 4 2 3 5 9 8 7 6</t>
-  </si>
-  <si>
-    <t>2234225p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
     <t>Teste #18</t>
   </si>
   <si>
-    <t>3 5 6 7 8 9 2 4 1</t>
-  </si>
-  <si>
-    <t>2234325p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
     <t>Teste #19</t>
   </si>
   <si>
-    <t>1 4 5 7 8 9 6 3 2</t>
-  </si>
-  <si>
-    <t>2234509p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
     <t>Teste #20</t>
   </si>
   <si>
     <t>1 2 4 3 6 7 8 9 5</t>
   </si>
   <si>
-    <t>2234711p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
     <t>Teste #21</t>
   </si>
   <si>
@@ -869,153 +599,9 @@
     <t>1 4 2 3 5 6 7 8 9</t>
   </si>
   <si>
-    <t>2235057p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>1 4 2 3 6 5 9 8 7</t>
-  </si>
-  <si>
-    <t>2235610p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>2240429p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>1 4 9 8 7 5 6 3 2</t>
-  </si>
-  <si>
-    <t>2242359p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
     <t>1 2 4 9 8 7 5 6 3</t>
   </si>
   <si>
-    <t>2242524p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>2243859p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>3 6 5 7 8 9 4 2 1</t>
-  </si>
-  <si>
-    <t>2244014p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>2244126p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>2244405p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>3 15 17 2 1 10 4 13 9 5 6 16 11 8 14 7 12</t>
-  </si>
-  <si>
-    <t>2250449p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>5 15 10 12 8 11 9 16 3 6 7 13 4 1 17 14 2</t>
-  </si>
-  <si>
-    <t>2250619p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>5 3 7 6 12 8 11 9 2 15 17 1 16 13 14 4 10</t>
-  </si>
-  <si>
-    <t>2250808p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>1 15 10 17 2 14 12 9 8 6 3 5 11 7 4 13 16</t>
-  </si>
-  <si>
-    <t>2251040p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>3 14 15 17 10 1 2 11 8 9 6 7 5 16 12 4 13</t>
-  </si>
-  <si>
-    <t>2251219p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>3 8 9 12 11 7 6 16 14 15 17 2 1 4 13 5 10</t>
-  </si>
-  <si>
-    <t>2251605p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>1 17 15 2 10 3 4 5 7 12 14 8 11 6 9 16 13</t>
-  </si>
-  <si>
-    <t>2251930p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>3 2 14 9 8 11 7 12 4 13 10 17 1 15 16 5 6</t>
-  </si>
-  <si>
-    <t>2260942p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>4 5 13 14 16 12 9 11 8 6 3 1 15 2 17 10 7</t>
-  </si>
-  <si>
-    <t>2261634p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>1 16 4 7 13 10 15 17 2 14 3 6 11 9 8 12 5</t>
-  </si>
-  <si>
-    <t>2261930p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>3 7 8 11 9 12 16 6 5 13 4 2 10 1 15 17 14</t>
-  </si>
-  <si>
-    <t>2262323p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>3 6 12 9 16 13 4 14 2 17 15 1 10 5 7 8 11</t>
-  </si>
-  <si>
-    <t>2262515p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>3 6 5 13 7 8 11 9 12 16 4 10 1 15 17 2 14</t>
-  </si>
-  <si>
-    <t>2262701p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>3 6 5 16 4 14 2 13 7 8 11 12 9 10 1 15 17</t>
-  </si>
-  <si>
-    <t>2263034p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>1 10 12 9 16 13 4 14 17 15 2 3 6 5 7 8 11</t>
-  </si>
-  <si>
-    <t>3 5 13 14 17 15 2 16 9 12 6 7 8 11 4 10 1</t>
-  </si>
-  <si>
-    <t>2263230p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>2263447p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>10 3 6 5 13 7 8 11 9 12 16 4 14 2 17 15 1</t>
-  </si>
-  <si>
-    <t>2263637p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>9 12 11 8 7 6 3 2 17 15 1 10 4 13 5 16 14</t>
-  </si>
-  <si>
-    <t>2263828p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
     <t>Teste #24</t>
   </si>
   <si>
@@ -1028,49 +614,526 @@
     <t>Teste #27</t>
   </si>
   <si>
-    <t>3 6 7 5 13 4 14 2 17 15 1 10 16 12 9 11 8</t>
-  </si>
-  <si>
-    <t>2264125p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>1 10 15 17 2 14 13 5 7 8 11 16 4 3 6 9 12</t>
-  </si>
-  <si>
-    <t>2264433p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>3 4 13 10 1 15 17 2 14 16 9 12 11 8 7 6 5</t>
-  </si>
-  <si>
-    <t>2264742p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>3 6 9 12 11 8 7 5 13 10 1 15 17 2 14 4 16</t>
-  </si>
-  <si>
-    <t>2265029p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
     <t>Teste #28</t>
   </si>
   <si>
-    <t>1 10 16 9 12 11 8 7 3 2 15 17 14 4 13 5 6</t>
-  </si>
-  <si>
-    <t>2265244p.m._HillClimberOptimiser.csv</t>
-  </si>
-  <si>
-    <t>3 10 13 5 6 12 16 17 1 2 15 4 14 9 11 8 7</t>
-  </si>
-  <si>
-    <t>2265625p.m._RandomSearchOptimiser.csv</t>
-  </si>
-  <si>
-    <t>3 6 7 5 13 4 14 2 17 15 1 10 16 9 12 11 8</t>
-  </si>
-  <si>
-    <t>2270703p.m._HillClimberOptimiser.csv</t>
+    <t>2 3 1 4 5 7 8 9 6</t>
+  </si>
+  <si>
+    <t>23120845p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 1 4 6 5 7 8 9 2</t>
+  </si>
+  <si>
+    <t>23120936p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>23121035p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>23121144p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>23121241p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 6 9 8 7 2 1 4 5</t>
+  </si>
+  <si>
+    <t>23125043p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 5 6 7 8 9 2 4 3</t>
+  </si>
+  <si>
+    <t>23125133p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>23125226p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 1 4 2 5 7 6 8 9</t>
+  </si>
+  <si>
+    <t>23125309p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 2 4 6 5 7 8 9 3</t>
+  </si>
+  <si>
+    <t>23125355p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>23125511p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>23125715p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2310121p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>5 9 8 7 6 3 2 4 1</t>
+  </si>
+  <si>
+    <t>2310238p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2310323p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 4 2 9 5 8 7 6 3</t>
+  </si>
+  <si>
+    <t>2310517p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2310751p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2310929p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 4 2 9 8 7 5 3 6</t>
+  </si>
+  <si>
+    <t>2311030p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2311238p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 2 4 3 6 9 5 7 8</t>
+  </si>
+  <si>
+    <t>2311450p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2311814p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2312040p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 6 5 7 8 9 4 1 2</t>
+  </si>
+  <si>
+    <t>2312233p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2312402p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>Teste #29</t>
+  </si>
+  <si>
+    <t>Teste #30</t>
+  </si>
+  <si>
+    <t>Teste #31</t>
+  </si>
+  <si>
+    <t>2320118p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2320612p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2320950p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 5 6 7 8 9 4 2 1</t>
+  </si>
+  <si>
+    <t>2321247p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 2 4 8 9 5 7 6 3</t>
+  </si>
+  <si>
+    <t>2321547p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2322029p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2324036p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2324240p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 8 7 6 3 2 4 5 9</t>
+  </si>
+  <si>
+    <t>2324413p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2324517p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2324706p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2325534p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2325649p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 5 7 6 3 2 4 9 8</t>
+  </si>
+  <si>
+    <t>2325938p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2330025p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2330132p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2330221p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2330307p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2330905p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2330952p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2331836p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2332001p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 6 5 4 2 1 9 8 7</t>
+  </si>
+  <si>
+    <t>2332504p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>Não vale a pena continuar</t>
+  </si>
+  <si>
+    <t>2333458p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 10 17 2 14 15 8 16 4 7 9 11 5 3 12 6 13</t>
+  </si>
+  <si>
+    <t>2333540p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 6 11 9 15 3 17 10 13 14 4 2 5 7 12 16 8</t>
+  </si>
+  <si>
+    <t>2333622p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 12 6 9 14 13 5 7 8 11 16 17 15 10 2 1 4</t>
+  </si>
+  <si>
+    <t>2333710p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>11 9 8 16 12 7 6 13 3 1 2 4 5 10 15 17 14</t>
+  </si>
+  <si>
+    <t>3 6 10 15 17 2 16 8 11 7 12 5 13 4 9 14 1</t>
+  </si>
+  <si>
+    <t>2344836p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>13 14 16 5 2 9 1 15 10 17 4 3 6 7 8 12 11</t>
+  </si>
+  <si>
+    <t>2345122p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>10 9 12 14 17 15 1 7 11 2 4 3 6 5 13 16 8</t>
+  </si>
+  <si>
+    <t>2345307p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2345349p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 7 12 5 13 16 4 8 6 9 11 10 15 14 2 17 1</t>
+  </si>
+  <si>
+    <t>2345430p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2345538p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>16 12 4 14 1 10 2 13 5 7 6 3 8 11 9 17 15</t>
+  </si>
+  <si>
+    <t>2345612p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 6 13 15 17 1 10 5 9 12 7 8 16 4 14 2 11</t>
+  </si>
+  <si>
+    <t>2345712p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2345755p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2345826p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2 3 13 14 17 1 15 10 4 12 8 9 11 16 5 6 7</t>
+  </si>
+  <si>
+    <t>2345941p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 14 4 13 17 15 12 7 8 11 9 6 3 10 2 16 5</t>
+  </si>
+  <si>
+    <t>2350223p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>17 15 2 4 14 13 9 11 8 7 5 12 6 3 10 1 16</t>
+  </si>
+  <si>
+    <t>2350627p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 13 2 15 1 10 9 16 4 14 17 5 12 11 6 8 7</t>
+  </si>
+  <si>
+    <t>2351129p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>17 15 1 10 9 12 8 11 16 14 13 5 2 4 7 6 3</t>
+  </si>
+  <si>
+    <t>2351315p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 17 10 13 5 14 15 2 16 4 1 9 12 11 8 7 6</t>
+  </si>
+  <si>
+    <t>2351546p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 9 12 6 7 8 11 10 1 17 13 2 14 15 4 16 5</t>
+  </si>
+  <si>
+    <t>2351915p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2352236p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>10 16 5 2 15 17 1 3 6 9 11 12 8 7 13 4 14</t>
+  </si>
+  <si>
+    <t>2352636p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2353359p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2353640p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 10 16 11 8 7 6 4 13 9 12 5 14 1 15 17 2</t>
+  </si>
+  <si>
+    <t>2354500p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2355414p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 13 15 2 14 4 17 10 16 5 9 12 3 6 7 8 11</t>
+  </si>
+  <si>
+    <t>2360619p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2361329p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2362240p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>5 9 12 16 13 4 1 15 10 6 7 3 2 17 14 8 11</t>
+  </si>
+  <si>
+    <t>2363834p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 6 13 10 15 1 4 17 2 14 5 9 12 16 11 8 7</t>
+  </si>
+  <si>
+    <t>2363945p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 5 6 7 1 15 14 2 10 17 4 13 8 11 16 9 12</t>
+  </si>
+  <si>
+    <t>2364018p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>17 4 3 2 14 15 1 10 16 11 8 7 6 5 13 9 12</t>
+  </si>
+  <si>
+    <t>2364103p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 5 9 16 13 1 10 2 14 12 8 6 7 11 4 17 15</t>
+  </si>
+  <si>
+    <t>2364132p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 12 9 16 13 4 10 1 15 5 6 7 2 17 14 11 8</t>
+  </si>
+  <si>
+    <t>2365735p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 6 5 10 1 15 17 2 14 4 13 16 9 12 11 8 </t>
+  </si>
+  <si>
+    <t>2370414p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 6 5 13 14 2 17 15 1 10 4 16 8 7 11 9 12</t>
+  </si>
+  <si>
+    <t>2370502p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 1 15 17 14 2 10 4 16 11 8 7 6 5 13 9 12</t>
+  </si>
+  <si>
+    <t>2370542p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 6 9 12 14 17 15 2 4 13 5 7 8 11 16 10 1</t>
+  </si>
+  <si>
+    <t>2370624p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 5 4 14 2 17 15 1 10 16 13 7 6 12 9 11 8</t>
+  </si>
+  <si>
+    <t>2370728p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 6 5 10 1 15 17 2 14 4 13 16 12 9 11 8 7</t>
+  </si>
+  <si>
+    <t>2370842p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 6 5 16 14 2 17 15 1 10 4 13 7 8 11 9 12</t>
+  </si>
+  <si>
+    <t>2370945p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 1 15 17 14 2 10 4 13 11 8 7 6 5 16 9 12</t>
+  </si>
+  <si>
+    <t>2371026p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2371108p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 10 4 14 2 17 15 1 13 16 5 6 7 8 11 9 12</t>
+  </si>
+  <si>
+    <t>2371158p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 6 5 10 1 15 17 2 14 4 13 16 9 12 11 8 7</t>
+  </si>
+  <si>
+    <t>2371334p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 6 5 13 14 2 17 15 1 10 4 16 7 8 11 9 12</t>
+  </si>
+  <si>
+    <t>2371454p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 10 1 15 17 2 14 4 13 11 8 7 6 5 16 9 12</t>
+  </si>
+  <si>
+    <t>2371612p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2372034p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 4 13 14 2 17 15 1 10 16 5 6 7 8 11 9 12</t>
+  </si>
+  <si>
+    <t>2372236p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2372607p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2372841p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2373115p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2373427p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 16 4 14 2 17 15 1 10 13 5 6 7 8 11 9 12</t>
+  </si>
+  <si>
+    <t>2373707p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2374335p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2375101p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2375724p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 6 9 16 14 17 15 2 4 13 5 7 8 11 12 10 1</t>
+  </si>
+  <si>
+    <t>2380609p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2381538p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2383159p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2384053p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2384258p.m._HillClimberOptimiser.csv</t>
   </si>
 </sst>
 </file>
@@ -1120,10 +1183,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2057,7 +2119,7 @@
     </row>
     <row r="29" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
@@ -2074,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="H30" t="s">
         <v>10</v>
@@ -2593,7 +2655,7 @@
     </row>
     <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
@@ -2610,7 +2672,7 @@
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="H31" t="s">
         <v>10</v>
@@ -3291,7 +3353,7 @@
     </row>
     <row r="29" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
@@ -3308,7 +3370,7 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="H30" t="s">
         <v>10</v>
@@ -3386,10 +3448,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35482D3B-BB67-AC4D-83E5-7AF77605C8BE}">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3448,7 +3510,7 @@
         <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="I4">
         <v>47</v>
@@ -3457,7 +3519,7 @@
         <v>85</v>
       </c>
       <c r="K4" t="s">
-        <v>117</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -3474,7 +3536,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="I5">
         <v>38</v>
@@ -3483,7 +3545,7 @@
         <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -3500,7 +3562,7 @@
         <v>100</v>
       </c>
       <c r="H6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I6">
         <v>68</v>
@@ -3509,7 +3571,7 @@
         <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -3526,7 +3588,7 @@
         <v>100</v>
       </c>
       <c r="H7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I7">
         <v>82</v>
@@ -3535,7 +3597,7 @@
         <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -3552,16 +3614,16 @@
         <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I8">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="J8">
         <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -3569,25 +3631,25 @@
         <v>19</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E9">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H9" t="s">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="I9">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="J9">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -3595,25 +3657,25 @@
         <v>20</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E10">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H10" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="I10">
-        <v>92</v>
+        <v>376</v>
       </c>
       <c r="J10">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -3621,25 +3683,25 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E11">
         <v>1000</v>
       </c>
       <c r="G11">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H11" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="I11">
-        <v>512</v>
+        <v>38</v>
       </c>
       <c r="J11">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -3647,25 +3709,25 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E12">
-        <v>572</v>
+        <v>1500</v>
       </c>
       <c r="G12">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H12" t="s">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="I12">
-        <v>410</v>
+        <v>464</v>
       </c>
       <c r="J12">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -3673,853 +3735,1225 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E13">
-        <v>485</v>
+        <v>2000</v>
       </c>
       <c r="G13">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H13" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="I13">
-        <v>830</v>
+        <v>364</v>
       </c>
       <c r="J13">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D14">
         <v>1000</v>
       </c>
       <c r="E14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>1000</v>
       </c>
       <c r="H14" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="I14">
-        <v>976</v>
+        <v>146</v>
       </c>
       <c r="J14">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="D15">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E15">
-        <v>8711</v>
+        <v>500</v>
       </c>
       <c r="G15">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H15" t="s">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="I15">
-        <v>14</v>
+        <v>376</v>
       </c>
       <c r="J15">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>126</v>
       </c>
       <c r="D16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E16">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="G16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H16" t="s">
-        <v>254</v>
+        <v>118</v>
       </c>
       <c r="I16">
-        <v>1705</v>
+        <v>512</v>
       </c>
       <c r="J16">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K16" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>256</v>
+        <v>127</v>
       </c>
       <c r="D17">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E17">
-        <v>1705</v>
+        <v>1500</v>
       </c>
       <c r="G17">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H17" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="I17">
-        <v>295</v>
+        <v>799</v>
       </c>
       <c r="J17">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>257</v>
+        <v>176</v>
       </c>
       <c r="D18">
+        <v>1000</v>
+      </c>
+      <c r="E18">
         <v>2000</v>
       </c>
-      <c r="E18">
-        <v>295</v>
-      </c>
       <c r="G18">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H18" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="I18">
-        <v>788</v>
+        <v>364</v>
       </c>
       <c r="J18">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K18" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>258</v>
+        <v>177</v>
       </c>
       <c r="D19">
         <v>2000</v>
       </c>
       <c r="E19">
-        <v>788</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>2000</v>
       </c>
       <c r="H19" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="I19">
-        <v>162</v>
+        <v>1745</v>
       </c>
       <c r="J19">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>264</v>
+        <v>178</v>
       </c>
       <c r="D20">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="E20">
-        <v>162</v>
+        <v>500</v>
       </c>
       <c r="G20">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="H20" t="s">
-        <v>265</v>
+        <v>202</v>
       </c>
       <c r="I20">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="J20">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>267</v>
+        <v>179</v>
       </c>
       <c r="D21">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="E21">
-        <v>332</v>
+        <v>1000</v>
       </c>
       <c r="G21">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="H21" t="s">
-        <v>268</v>
+        <v>118</v>
       </c>
       <c r="I21">
-        <v>1519</v>
+        <v>512</v>
       </c>
       <c r="J21">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K21" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="D22">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="E22">
-        <v>1519</v>
+        <v>1500</v>
       </c>
       <c r="G22">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="H22" t="s">
-        <v>271</v>
+        <v>219</v>
       </c>
       <c r="I22">
-        <v>4177</v>
+        <v>1919</v>
       </c>
       <c r="J22">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K22" t="s">
-        <v>272</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>273</v>
+        <v>181</v>
       </c>
       <c r="D23">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="E23">
-        <v>4177</v>
+        <v>2000</v>
       </c>
       <c r="G23">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="H23" t="s">
-        <v>276</v>
+        <v>207</v>
       </c>
       <c r="I23">
-        <v>6243</v>
+        <v>364</v>
       </c>
       <c r="J23">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s">
-        <v>277</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>274</v>
+        <v>183</v>
       </c>
       <c r="D24">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E24">
-        <v>6243</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="H24" t="s">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="I24">
-        <v>5226</v>
+        <v>2549</v>
       </c>
       <c r="J24">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K24" t="s">
-        <v>279</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>275</v>
+        <v>184</v>
       </c>
       <c r="D25">
+        <v>5000</v>
+      </c>
+      <c r="E25">
+        <v>500</v>
+      </c>
+      <c r="G25">
+        <v>5000</v>
+      </c>
+      <c r="H25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I25">
+        <v>3416</v>
+      </c>
+      <c r="J25">
+        <v>69</v>
+      </c>
+      <c r="K25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26">
+        <v>5000</v>
+      </c>
+      <c r="E26">
+        <v>1000</v>
+      </c>
+      <c r="G26">
+        <v>5000</v>
+      </c>
+      <c r="H26" t="s">
+        <v>182</v>
+      </c>
+      <c r="I26">
+        <v>2220</v>
+      </c>
+      <c r="J26">
+        <v>67</v>
+      </c>
+      <c r="K26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27">
+        <v>5000</v>
+      </c>
+      <c r="E27">
+        <v>1500</v>
+      </c>
+      <c r="G27">
+        <v>5000</v>
+      </c>
+      <c r="H27" t="s">
+        <v>226</v>
+      </c>
+      <c r="I27">
+        <v>4482</v>
+      </c>
+      <c r="J27">
+        <v>67</v>
+      </c>
+      <c r="K27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28">
+        <v>5000</v>
+      </c>
+      <c r="E28">
+        <v>2000</v>
+      </c>
+      <c r="G28">
+        <v>5000</v>
+      </c>
+      <c r="H28" t="s">
+        <v>207</v>
+      </c>
+      <c r="I28">
+        <v>364</v>
+      </c>
+      <c r="J28">
+        <v>75</v>
+      </c>
+      <c r="K28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29">
         <v>100000</v>
       </c>
-      <c r="E25">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>100000</v>
+      </c>
+      <c r="H29" t="s">
+        <v>222</v>
+      </c>
+      <c r="I29">
+        <v>2549</v>
+      </c>
+      <c r="J29">
+        <v>71</v>
+      </c>
+      <c r="K29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30">
+        <v>100000</v>
+      </c>
+      <c r="E30">
+        <v>500</v>
+      </c>
+      <c r="G30">
+        <v>100000</v>
+      </c>
+      <c r="H30" t="s">
+        <v>186</v>
+      </c>
+      <c r="I30">
+        <v>9531</v>
+      </c>
+      <c r="J30">
+        <v>67</v>
+      </c>
+      <c r="K30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31">
+        <v>100000</v>
+      </c>
+      <c r="E31">
+        <v>1000</v>
+      </c>
+      <c r="G31">
+        <v>100000</v>
+      </c>
+      <c r="H31" t="s">
+        <v>182</v>
+      </c>
+      <c r="I31">
+        <v>2220</v>
+      </c>
+      <c r="J31">
+        <v>67</v>
+      </c>
+      <c r="K31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D32">
+        <v>100000</v>
+      </c>
+      <c r="E32">
+        <v>1500</v>
+      </c>
+      <c r="G32">
+        <v>100000</v>
+      </c>
+      <c r="H32" t="s">
+        <v>235</v>
+      </c>
+      <c r="I32">
+        <v>8114</v>
+      </c>
+      <c r="J32">
+        <v>66</v>
+      </c>
+      <c r="K32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>230</v>
+      </c>
+      <c r="D33">
+        <v>100000</v>
+      </c>
+      <c r="E33">
+        <v>2000</v>
+      </c>
+      <c r="G33">
+        <v>100000</v>
+      </c>
+      <c r="H33" t="s">
+        <v>237</v>
+      </c>
+      <c r="I33">
+        <v>8109</v>
+      </c>
+      <c r="J33">
+        <v>73</v>
+      </c>
+      <c r="K33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
         <v>7</v>
       </c>
-      <c r="G25">
-        <v>100000</v>
-      </c>
-      <c r="H25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I25">
-        <v>8711</v>
-      </c>
-      <c r="J25">
-        <v>63</v>
-      </c>
-      <c r="K25" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D37" t="s">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
         <v>5</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E45" t="s">
         <v>2</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G45" t="s">
         <v>10</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H45" t="s">
         <v>8</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I45" t="s">
         <v>9</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J45" t="s">
         <v>11</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K45" t="s">
         <v>12</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L45" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39">
-        <v>100</v>
-      </c>
-      <c r="E39">
-        <v>7</v>
-      </c>
-      <c r="G39">
-        <v>100</v>
-      </c>
-      <c r="H39" t="s">
-        <v>138</v>
-      </c>
-      <c r="I39">
-        <v>56</v>
-      </c>
-      <c r="J39">
-        <v>64</v>
-      </c>
-      <c r="K39" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40">
-        <v>100</v>
-      </c>
-      <c r="E40">
-        <v>500</v>
-      </c>
-      <c r="G40">
-        <v>100</v>
-      </c>
-      <c r="H40" t="s">
-        <v>141</v>
-      </c>
-      <c r="I40">
-        <v>80</v>
-      </c>
-      <c r="J40">
-        <v>67</v>
-      </c>
-      <c r="K40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41">
-        <v>100</v>
-      </c>
-      <c r="E41">
-        <v>1000</v>
-      </c>
-      <c r="G41">
-        <v>100</v>
-      </c>
-      <c r="H41" t="s">
-        <v>143</v>
-      </c>
-      <c r="I41">
-        <v>39</v>
-      </c>
-      <c r="J41">
-        <v>71</v>
-      </c>
-      <c r="K41" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42">
-        <v>100</v>
-      </c>
-      <c r="E42">
-        <v>1937</v>
-      </c>
-      <c r="G42">
-        <v>100</v>
-      </c>
-      <c r="H42" t="s">
-        <v>145</v>
-      </c>
-      <c r="I42">
-        <v>88</v>
-      </c>
-      <c r="J42">
-        <v>69</v>
-      </c>
-      <c r="K42" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43">
-        <v>100</v>
-      </c>
-      <c r="E43">
-        <v>94201938</v>
-      </c>
-      <c r="G43">
-        <v>100</v>
-      </c>
-      <c r="H43" t="s">
-        <v>147</v>
-      </c>
-      <c r="I43">
-        <v>80</v>
-      </c>
-      <c r="J43">
-        <v>69</v>
-      </c>
-      <c r="K43" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44">
-        <v>500</v>
-      </c>
-      <c r="E44">
-        <v>3124</v>
-      </c>
-      <c r="G44">
-        <v>500</v>
-      </c>
-      <c r="H44" t="s">
-        <v>149</v>
-      </c>
-      <c r="I44">
-        <v>28</v>
-      </c>
-      <c r="J44">
-        <v>73</v>
-      </c>
-      <c r="K44" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45">
-        <v>500</v>
-      </c>
-      <c r="E45">
-        <v>777</v>
-      </c>
-      <c r="G45">
-        <v>500</v>
-      </c>
-      <c r="H45" t="s">
-        <v>151</v>
-      </c>
-      <c r="I45">
-        <v>126</v>
-      </c>
-      <c r="J45">
-        <v>65</v>
-      </c>
-      <c r="K45" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46">
-        <v>500</v>
-      </c>
-      <c r="E46">
-        <v>31</v>
-      </c>
-      <c r="G46">
-        <v>500</v>
-      </c>
-      <c r="H46" t="s">
-        <v>138</v>
-      </c>
-      <c r="I46">
-        <v>89</v>
-      </c>
-      <c r="J46">
-        <v>64</v>
-      </c>
-      <c r="K46" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E47">
-        <v>731</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H47" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I47">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="J47">
         <v>63</v>
       </c>
       <c r="K47" t="s">
-        <v>154</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D48">
+        <v>100</v>
+      </c>
+      <c r="E48">
         <v>500</v>
       </c>
-      <c r="E48">
-        <v>27</v>
-      </c>
       <c r="G48">
+        <v>100</v>
+      </c>
+      <c r="H48" t="s">
+        <v>123</v>
+      </c>
+      <c r="I48">
+        <v>80</v>
+      </c>
+      <c r="J48">
+        <v>67</v>
+      </c>
+      <c r="K48" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49">
+        <v>100</v>
+      </c>
+      <c r="E49">
+        <v>1000</v>
+      </c>
+      <c r="G49">
+        <v>100</v>
+      </c>
+      <c r="H49" t="s">
+        <v>124</v>
+      </c>
+      <c r="I49">
+        <v>39</v>
+      </c>
+      <c r="J49">
+        <v>71</v>
+      </c>
+      <c r="K49" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50">
+        <v>100</v>
+      </c>
+      <c r="E50">
+        <v>1500</v>
+      </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+      <c r="H50" t="s">
+        <v>242</v>
+      </c>
+      <c r="I50">
+        <v>30</v>
+      </c>
+      <c r="J50">
+        <v>83</v>
+      </c>
+      <c r="K50" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+      <c r="E51">
+        <v>2000</v>
+      </c>
+      <c r="G51">
+        <v>100</v>
+      </c>
+      <c r="H51" t="s">
+        <v>187</v>
+      </c>
+      <c r="I51">
+        <v>45</v>
+      </c>
+      <c r="J51">
+        <v>63</v>
+      </c>
+      <c r="K51" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52">
         <v>500</v>
       </c>
-      <c r="H48" t="s">
-        <v>281</v>
-      </c>
-      <c r="I48">
-        <v>141</v>
-      </c>
-      <c r="J48">
-        <v>69</v>
-      </c>
-      <c r="K48" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="G52">
         <v>500</v>
       </c>
-      <c r="E49">
-        <v>141</v>
-      </c>
-      <c r="G49">
-        <v>500</v>
-      </c>
-      <c r="H49" t="s">
-        <v>283</v>
-      </c>
-      <c r="I49">
-        <v>80</v>
-      </c>
-      <c r="J49">
-        <v>63</v>
-      </c>
-      <c r="K49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>137</v>
-      </c>
-      <c r="D50">
-        <v>1000</v>
-      </c>
-      <c r="E50">
-        <v>80</v>
-      </c>
-      <c r="G50">
-        <v>1000</v>
-      </c>
-      <c r="H50" t="s">
-        <v>141</v>
-      </c>
-      <c r="I50">
-        <v>968</v>
-      </c>
-      <c r="J50">
-        <v>67</v>
-      </c>
-      <c r="K50" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>198</v>
-      </c>
-      <c r="D51">
-        <v>1000</v>
-      </c>
-      <c r="E51">
-        <v>85</v>
-      </c>
-      <c r="G51">
-        <v>1000</v>
-      </c>
-      <c r="H51" t="s">
-        <v>286</v>
-      </c>
-      <c r="I51">
-        <v>150</v>
-      </c>
-      <c r="J51">
-        <v>64</v>
-      </c>
-      <c r="K51" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>199</v>
-      </c>
-      <c r="D52">
-        <v>1000</v>
-      </c>
-      <c r="E52">
-        <v>150</v>
-      </c>
-      <c r="G52">
-        <v>1000</v>
-      </c>
       <c r="H52" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I52">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="J52">
         <v>63</v>
       </c>
       <c r="K52" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53">
+        <v>500</v>
+      </c>
+      <c r="E53">
+        <v>500</v>
+      </c>
+      <c r="G53">
+        <v>500</v>
+      </c>
+      <c r="H53" t="s">
+        <v>123</v>
+      </c>
+      <c r="I53">
+        <v>80</v>
+      </c>
+      <c r="J53">
+        <v>67</v>
+      </c>
+      <c r="K53" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54">
+        <v>500</v>
+      </c>
+      <c r="E54">
+        <v>1000</v>
+      </c>
+      <c r="G54">
+        <v>500</v>
+      </c>
+      <c r="H54" t="s">
+        <v>124</v>
+      </c>
+      <c r="I54">
+        <v>39</v>
+      </c>
+      <c r="J54">
+        <v>71</v>
+      </c>
+      <c r="K54" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55">
+        <v>500</v>
+      </c>
+      <c r="E55">
+        <v>1500</v>
+      </c>
+      <c r="G55">
+        <v>500</v>
+      </c>
+      <c r="H55" t="s">
+        <v>248</v>
+      </c>
+      <c r="I55">
+        <v>227</v>
+      </c>
+      <c r="J55">
+        <v>77</v>
+      </c>
+      <c r="K55" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56">
+        <v>500</v>
+      </c>
+      <c r="E56">
+        <v>2000</v>
+      </c>
+      <c r="G56">
+        <v>500</v>
+      </c>
+      <c r="H56" t="s">
+        <v>187</v>
+      </c>
+      <c r="I56">
+        <v>45</v>
+      </c>
+      <c r="J56">
+        <v>63</v>
+      </c>
+      <c r="K56" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57">
+        <v>1000</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1000</v>
+      </c>
+      <c r="H57" t="s">
+        <v>121</v>
+      </c>
+      <c r="I57">
+        <v>93</v>
+      </c>
+      <c r="J57">
+        <v>63</v>
+      </c>
+      <c r="K57" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58">
+        <v>1000</v>
+      </c>
+      <c r="E58">
+        <v>500</v>
+      </c>
+      <c r="G58">
+        <v>1000</v>
+      </c>
+      <c r="H58" t="s">
+        <v>123</v>
+      </c>
+      <c r="I58">
+        <v>80</v>
+      </c>
+      <c r="J58">
+        <v>67</v>
+      </c>
+      <c r="K58" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59">
+        <v>1000</v>
+      </c>
+      <c r="E59">
+        <v>1000</v>
+      </c>
+      <c r="G59">
+        <v>1000</v>
+      </c>
+      <c r="H59" t="s">
+        <v>124</v>
+      </c>
+      <c r="I59">
+        <v>39</v>
+      </c>
+      <c r="J59">
+        <v>71</v>
+      </c>
+      <c r="K59" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60">
+        <v>1000</v>
+      </c>
+      <c r="E60">
+        <v>1500</v>
+      </c>
+      <c r="G60">
+        <v>1000</v>
+      </c>
+      <c r="H60" t="s">
+        <v>248</v>
+      </c>
+      <c r="I60">
+        <v>227</v>
+      </c>
+      <c r="J60">
+        <v>77</v>
+      </c>
+      <c r="K60" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61">
+        <v>1000</v>
+      </c>
+      <c r="E61">
+        <v>2000</v>
+      </c>
+      <c r="G61">
+        <v>1000</v>
+      </c>
+      <c r="H61" t="s">
+        <v>187</v>
+      </c>
+      <c r="I61">
+        <v>45</v>
+      </c>
+      <c r="J61">
+        <v>63</v>
+      </c>
+      <c r="K61" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62">
+        <v>5000</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>5000</v>
+      </c>
+      <c r="H62" t="s">
+        <v>121</v>
+      </c>
+      <c r="I62">
+        <v>93</v>
+      </c>
+      <c r="J62">
+        <v>63</v>
+      </c>
+      <c r="K62" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>178</v>
+      </c>
+      <c r="D63">
+        <v>5000</v>
+      </c>
+      <c r="E63">
+        <v>500</v>
+      </c>
+      <c r="G63">
+        <v>5000</v>
+      </c>
+      <c r="H63" t="s">
+        <v>123</v>
+      </c>
+      <c r="I63">
+        <v>80</v>
+      </c>
+      <c r="J63">
+        <v>67</v>
+      </c>
+      <c r="K63" t="s">
         <v>256</v>
       </c>
-      <c r="D53" s="2">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>179</v>
+      </c>
+      <c r="D64">
+        <v>5000</v>
+      </c>
+      <c r="E64">
+        <v>1000</v>
+      </c>
+      <c r="G64">
+        <v>5000</v>
+      </c>
+      <c r="H64" t="s">
+        <v>258</v>
+      </c>
+      <c r="I64">
+        <v>39</v>
+      </c>
+      <c r="J64">
+        <v>71</v>
+      </c>
+      <c r="K64" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>180</v>
+      </c>
+      <c r="D65">
+        <v>5000</v>
+      </c>
+      <c r="E65">
+        <v>1500</v>
+      </c>
+      <c r="G65">
+        <v>5000</v>
+      </c>
+      <c r="H65" t="s">
+        <v>248</v>
+      </c>
+      <c r="I65">
+        <v>227</v>
+      </c>
+      <c r="J65">
+        <v>77</v>
+      </c>
+      <c r="K65" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66">
+        <v>5000</v>
+      </c>
+      <c r="E66">
+        <v>2000</v>
+      </c>
+      <c r="G66">
+        <v>5000</v>
+      </c>
+      <c r="H66" t="s">
+        <v>187</v>
+      </c>
+      <c r="I66">
+        <v>45</v>
+      </c>
+      <c r="J66">
+        <v>63</v>
+      </c>
+      <c r="K66" t="s">
+        <v>364</v>
+      </c>
+      <c r="N66" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67">
         <v>100000</v>
       </c>
-      <c r="E53">
-        <v>150</v>
-      </c>
-      <c r="G53">
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="G67">
         <v>100000</v>
       </c>
-      <c r="H53" t="s">
-        <v>136</v>
-      </c>
-      <c r="I53">
-        <v>53</v>
-      </c>
-      <c r="J53">
+      <c r="H67" t="s">
+        <v>121</v>
+      </c>
+      <c r="I67">
+        <v>93</v>
+      </c>
+      <c r="J67">
         <v>63</v>
       </c>
-      <c r="K53" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A61" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="K67" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D77" t="s">
         <v>6</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H77" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D62" t="s">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
         <v>5</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E78" t="s">
         <v>2</v>
       </c>
-      <c r="F62" t="s">
-        <v>205</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="F78" t="s">
+        <v>129</v>
+      </c>
+      <c r="H78" t="s">
         <v>10</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I78" t="s">
         <v>8</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J78" t="s">
         <v>9</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K78" t="s">
         <v>11</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L78" t="s">
         <v>12</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M78" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4531,10 +4965,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C91D61-F5E8-A647-82E8-F0EDF9A7AD79}">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4599,7 +5033,7 @@
         <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="I4">
         <v>73</v>
@@ -4608,7 +5042,7 @@
         <v>164</v>
       </c>
       <c r="K4" t="s">
-        <v>156</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -4619,22 +5053,22 @@
         <v>100</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>500</v>
       </c>
       <c r="G5">
         <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="I5">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="J5">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="K5" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -4645,22 +5079,22 @@
         <v>100</v>
       </c>
       <c r="E6">
-        <v>731</v>
+        <v>1000</v>
       </c>
       <c r="G6">
         <v>100</v>
       </c>
       <c r="H6" t="s">
-        <v>159</v>
+        <v>264</v>
       </c>
       <c r="I6">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J6">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="K6" t="s">
-        <v>160</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -4671,22 +5105,22 @@
         <v>100</v>
       </c>
       <c r="E7">
-        <v>1042020</v>
+        <v>1500</v>
       </c>
       <c r="G7">
         <v>100</v>
       </c>
       <c r="H7" t="s">
-        <v>161</v>
+        <v>266</v>
       </c>
       <c r="I7">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="K7" t="s">
-        <v>162</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -4694,25 +5128,25 @@
         <v>18</v>
       </c>
       <c r="D8">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E8">
-        <v>1740</v>
+        <v>2000</v>
       </c>
       <c r="G8">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>163</v>
+        <v>268</v>
       </c>
       <c r="I8">
-        <v>860</v>
+        <v>14</v>
       </c>
       <c r="J8">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="K8" t="s">
-        <v>164</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -4720,25 +5154,25 @@
         <v>19</v>
       </c>
       <c r="D9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E9">
-        <v>1471</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H9" t="s">
-        <v>165</v>
+        <v>269</v>
       </c>
       <c r="I9">
-        <v>909</v>
+        <v>207</v>
       </c>
       <c r="J9">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="K9" t="s">
-        <v>166</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -4746,25 +5180,25 @@
         <v>20</v>
       </c>
       <c r="D10">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E10">
-        <v>731</v>
+        <v>500</v>
       </c>
       <c r="G10">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H10" t="s">
-        <v>167</v>
+        <v>271</v>
       </c>
       <c r="I10">
-        <v>638</v>
+        <v>350</v>
       </c>
       <c r="J10">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="K10" t="s">
-        <v>168</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -4772,25 +5206,25 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="E11">
-        <v>1275595</v>
+        <v>1000</v>
       </c>
       <c r="G11">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="H11" t="s">
-        <v>169</v>
+        <v>273</v>
       </c>
       <c r="I11">
-        <v>2977</v>
+        <v>317</v>
       </c>
       <c r="J11">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K11" t="s">
-        <v>170</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -4798,25 +5232,25 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="E12">
-        <v>731</v>
+        <v>1500</v>
       </c>
       <c r="G12">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="H12" t="s">
-        <v>171</v>
+        <v>266</v>
       </c>
       <c r="I12">
-        <v>3277</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>172</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -4824,1142 +5258,1500 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="E13">
-        <v>3277</v>
+        <v>2000</v>
       </c>
       <c r="G13">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="H13" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="I13">
-        <v>2085</v>
+        <v>378</v>
       </c>
       <c r="J13">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K13" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D14">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="E14">
-        <v>2085</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H14" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="I14">
-        <v>4263</v>
+        <v>207</v>
       </c>
       <c r="J14">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D15">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="E15">
-        <v>4263</v>
+        <v>500</v>
       </c>
       <c r="G15">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H15" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="I15">
-        <v>3470</v>
+        <v>869</v>
       </c>
       <c r="J15">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="D16">
+        <v>1000</v>
+      </c>
+      <c r="E16">
+        <v>1000</v>
+      </c>
+      <c r="G16">
+        <v>1000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>281</v>
+      </c>
+      <c r="I16">
+        <v>714</v>
+      </c>
+      <c r="J16">
+        <v>131</v>
+      </c>
+      <c r="K16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17">
+        <v>1000</v>
+      </c>
+      <c r="E17">
+        <v>1500</v>
+      </c>
+      <c r="G17">
+        <v>1000</v>
+      </c>
+      <c r="H17" t="s">
+        <v>266</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>140</v>
+      </c>
+      <c r="K17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+      <c r="E18">
+        <v>2000</v>
+      </c>
+      <c r="G18">
+        <v>1000</v>
+      </c>
+      <c r="H18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I18">
+        <v>378</v>
+      </c>
+      <c r="J18">
+        <v>148</v>
+      </c>
+      <c r="K18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19">
         <v>5000</v>
       </c>
-      <c r="E16">
-        <v>3470</v>
-      </c>
-      <c r="G16">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>5000</v>
       </c>
-      <c r="H16" t="s">
-        <v>296</v>
-      </c>
-      <c r="I16">
-        <v>728</v>
-      </c>
-      <c r="J16">
-        <v>127</v>
-      </c>
-      <c r="K16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17">
-        <v>10000</v>
-      </c>
-      <c r="E17">
-        <v>728</v>
-      </c>
-      <c r="G17">
-        <v>10000</v>
-      </c>
-      <c r="H17" t="s">
-        <v>298</v>
-      </c>
-      <c r="I17">
-        <v>3892</v>
-      </c>
-      <c r="J17">
-        <v>127</v>
-      </c>
-      <c r="K17" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>256</v>
-      </c>
-      <c r="D18">
-        <v>10000</v>
-      </c>
-      <c r="E18">
-        <v>3892</v>
-      </c>
-      <c r="G18">
-        <v>10000</v>
-      </c>
-      <c r="H18" t="s">
-        <v>300</v>
-      </c>
-      <c r="I18">
-        <v>2208</v>
-      </c>
-      <c r="J18">
-        <v>129</v>
-      </c>
-      <c r="K18" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>257</v>
-      </c>
-      <c r="D19">
-        <v>10000</v>
-      </c>
-      <c r="E19">
-        <v>2208</v>
-      </c>
-      <c r="G19">
-        <v>10000</v>
-      </c>
       <c r="H19" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="I19">
-        <v>8764</v>
+        <v>1680</v>
       </c>
       <c r="J19">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="K19" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>258</v>
+        <v>178</v>
       </c>
       <c r="D20">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E20">
-        <v>8764</v>
+        <v>500</v>
       </c>
       <c r="G20">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="H20" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="I20">
-        <v>1516</v>
+        <v>1721</v>
       </c>
       <c r="J20">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K20" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>264</v>
+        <v>179</v>
       </c>
       <c r="D21">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E21">
-        <v>1516</v>
+        <v>1000</v>
       </c>
       <c r="G21">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="H21" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="I21">
-        <v>5613</v>
+        <v>1181</v>
       </c>
       <c r="J21">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="K21" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D22">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E22">
-        <v>5613</v>
+        <v>1500</v>
       </c>
       <c r="G22">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="H22" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="I22">
-        <v>8477</v>
+        <v>1629</v>
       </c>
       <c r="J22">
         <v>137</v>
       </c>
       <c r="K22" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>270</v>
+        <v>181</v>
       </c>
       <c r="D23">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="E23">
-        <v>3470</v>
+        <v>2000</v>
       </c>
       <c r="G23">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="H23" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="I23">
-        <v>7392</v>
+        <v>3147</v>
       </c>
       <c r="J23">
         <v>125</v>
       </c>
       <c r="K23" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24">
+        <v>10000</v>
+      </c>
+      <c r="E24">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30" t="s">
-        <v>10</v>
+      <c r="G24">
+        <v>10000</v>
+      </c>
+      <c r="H24" t="s">
+        <v>295</v>
+      </c>
+      <c r="I24">
+        <v>7376</v>
+      </c>
+      <c r="J24">
+        <v>127</v>
+      </c>
+      <c r="K24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25">
+        <v>10000</v>
+      </c>
+      <c r="E25">
+        <v>500</v>
+      </c>
+      <c r="G25">
+        <v>10000</v>
+      </c>
+      <c r="H25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I25">
+        <v>7659</v>
+      </c>
+      <c r="J25">
+        <v>131</v>
+      </c>
+      <c r="K25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26">
+        <v>10000</v>
+      </c>
+      <c r="E26">
+        <v>1000</v>
+      </c>
+      <c r="G26">
+        <v>10000</v>
+      </c>
+      <c r="H26" t="s">
+        <v>289</v>
+      </c>
+      <c r="I26">
+        <v>1181</v>
+      </c>
+      <c r="J26">
+        <v>119</v>
+      </c>
+      <c r="K26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27">
+        <v>10000</v>
+      </c>
+      <c r="E27">
+        <v>1500</v>
+      </c>
+      <c r="G27">
+        <v>10000</v>
+      </c>
+      <c r="H27" t="s">
+        <v>300</v>
+      </c>
+      <c r="I27">
+        <v>6782</v>
+      </c>
+      <c r="J27">
+        <v>124</v>
+      </c>
+      <c r="K27" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28">
+        <v>10000</v>
+      </c>
+      <c r="E28">
+        <v>2000</v>
+      </c>
+      <c r="G28">
+        <v>10000</v>
+      </c>
+      <c r="H28" t="s">
+        <v>293</v>
+      </c>
+      <c r="I28">
+        <v>3147</v>
+      </c>
+      <c r="J28">
+        <v>125</v>
+      </c>
+      <c r="K28" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29">
+        <v>50000</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>50000</v>
+      </c>
+      <c r="H29" t="s">
+        <v>295</v>
+      </c>
+      <c r="I29">
+        <v>7376</v>
+      </c>
+      <c r="J29">
+        <v>127</v>
+      </c>
+      <c r="K29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30">
+        <v>50000</v>
+      </c>
+      <c r="E30">
+        <v>500</v>
+      </c>
+      <c r="G30">
+        <v>50000</v>
       </c>
       <c r="H30" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" t="s">
-        <v>9</v>
-      </c>
-      <c r="J30" t="s">
-        <v>11</v>
+        <v>304</v>
+      </c>
+      <c r="I30">
+        <v>29899</v>
+      </c>
+      <c r="J30">
+        <v>121</v>
       </c>
       <c r="K30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31">
+        <v>50000</v>
+      </c>
+      <c r="E31">
+        <v>1000</v>
+      </c>
+      <c r="G31">
+        <v>50000</v>
+      </c>
+      <c r="H31" t="s">
+        <v>289</v>
+      </c>
+      <c r="I31">
+        <v>1181</v>
+      </c>
+      <c r="J31">
+        <v>119</v>
+      </c>
+      <c r="K31" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>229</v>
       </c>
       <c r="D32">
-        <v>100</v>
+        <v>50000</v>
       </c>
       <c r="E32">
-        <v>7</v>
+        <v>1500</v>
       </c>
       <c r="G32">
-        <v>100</v>
+        <v>50000</v>
       </c>
       <c r="H32" t="s">
-        <v>173</v>
+        <v>307</v>
       </c>
       <c r="I32">
-        <v>87</v>
+        <v>22813</v>
       </c>
       <c r="J32">
         <v>123</v>
       </c>
       <c r="K32" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>230</v>
+      </c>
+      <c r="D33">
+        <v>50000</v>
+      </c>
+      <c r="E33">
+        <v>2000</v>
+      </c>
+      <c r="G33">
+        <v>50000</v>
+      </c>
+      <c r="H33" t="s">
+        <v>293</v>
+      </c>
+      <c r="I33">
+        <v>3147</v>
+      </c>
+      <c r="J33">
+        <v>125</v>
+      </c>
+      <c r="K33" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34">
+        <v>100000</v>
+      </c>
+      <c r="E34">
+        <v>1000</v>
+      </c>
+      <c r="G34">
+        <v>100000</v>
+      </c>
+      <c r="H34" t="s">
+        <v>289</v>
+      </c>
+      <c r="I34">
+        <v>1181</v>
+      </c>
+      <c r="J34">
+        <v>119</v>
+      </c>
+      <c r="K34" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40" t="s">
+        <v>311</v>
+      </c>
+      <c r="I40">
+        <v>51</v>
+      </c>
+      <c r="J40">
+        <v>143</v>
+      </c>
+      <c r="K40" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>4</v>
       </c>
-      <c r="D33">
-        <v>100</v>
-      </c>
-      <c r="E33">
-        <v>104</v>
-      </c>
-      <c r="G33">
-        <v>100</v>
-      </c>
-      <c r="H33" t="s">
-        <v>175</v>
-      </c>
-      <c r="I33">
+      <c r="D41">
+        <v>100</v>
+      </c>
+      <c r="E41">
+        <v>500</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41" t="s">
+        <v>313</v>
+      </c>
+      <c r="I41">
+        <v>93</v>
+      </c>
+      <c r="J41">
+        <v>111</v>
+      </c>
+      <c r="K41" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="E42">
+        <v>1000</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="H42" t="s">
+        <v>315</v>
+      </c>
+      <c r="I42">
+        <v>96</v>
+      </c>
+      <c r="J42">
+        <v>123</v>
+      </c>
+      <c r="K42" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>100</v>
+      </c>
+      <c r="E43">
+        <v>1500</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+      <c r="H43" t="s">
+        <v>317</v>
+      </c>
+      <c r="I43">
         <v>88</v>
       </c>
-      <c r="J33">
+      <c r="J43">
         <v>117</v>
       </c>
-      <c r="K33" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34">
-        <v>100</v>
-      </c>
-      <c r="E34">
+      <c r="K43" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44">
+        <v>100</v>
+      </c>
+      <c r="E44">
+        <v>2000</v>
+      </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+      <c r="H44" t="s">
+        <v>319</v>
+      </c>
+      <c r="I44">
+        <v>97</v>
+      </c>
+      <c r="J44">
+        <v>133</v>
+      </c>
+      <c r="K44" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45">
+        <v>500</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>500</v>
+      </c>
+      <c r="H45" t="s">
+        <v>321</v>
+      </c>
+      <c r="I45">
+        <v>258</v>
+      </c>
+      <c r="J45">
+        <v>129</v>
+      </c>
+      <c r="K45" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46">
+        <v>500</v>
+      </c>
+      <c r="E46">
+        <v>500</v>
+      </c>
+      <c r="G46">
+        <v>500</v>
+      </c>
+      <c r="H46" t="s">
+        <v>323</v>
+      </c>
+      <c r="I46">
+        <v>225</v>
+      </c>
+      <c r="J46">
+        <v>81</v>
+      </c>
+      <c r="K46" t="s">
         <v>324</v>
       </c>
-      <c r="G34">
-        <v>100</v>
-      </c>
-      <c r="H34" t="s">
-        <v>177</v>
-      </c>
-      <c r="I34">
-        <v>97</v>
-      </c>
-      <c r="J34">
-        <v>123</v>
-      </c>
-      <c r="K34" t="s">
-        <v>178</v>
-      </c>
-      <c r="L34" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35">
-        <v>1000</v>
-      </c>
-      <c r="E35">
-        <v>19</v>
-      </c>
-      <c r="G35">
-        <v>1000</v>
-      </c>
-      <c r="H35" t="s">
-        <v>180</v>
-      </c>
-      <c r="I35">
-        <v>927</v>
-      </c>
-      <c r="J35">
-        <v>105</v>
-      </c>
-      <c r="K35" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36">
-        <v>1000</v>
-      </c>
-      <c r="E36">
-        <v>927</v>
-      </c>
-      <c r="G36">
-        <v>1000</v>
-      </c>
-      <c r="H36" t="s">
-        <v>182</v>
-      </c>
-      <c r="I36">
-        <v>934</v>
-      </c>
-      <c r="J36">
-        <v>95</v>
-      </c>
-      <c r="K36" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37">
-        <v>1000</v>
-      </c>
-      <c r="E37">
-        <v>934</v>
-      </c>
-      <c r="G37">
-        <v>1000</v>
-      </c>
-      <c r="H37" t="s">
-        <v>184</v>
-      </c>
-      <c r="I37">
-        <v>759</v>
-      </c>
-      <c r="J37">
-        <v>93</v>
-      </c>
-      <c r="K37" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38">
-        <v>1000</v>
-      </c>
-      <c r="E38">
-        <v>759</v>
-      </c>
-      <c r="G38">
-        <v>1000</v>
-      </c>
-      <c r="H38" t="s">
-        <v>186</v>
-      </c>
-      <c r="I38">
-        <v>833</v>
-      </c>
-      <c r="J38">
-        <v>87</v>
-      </c>
-      <c r="K38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>21</v>
       </c>
-      <c r="D39">
-        <v>2500</v>
-      </c>
-      <c r="E39">
-        <v>833</v>
-      </c>
-      <c r="G39">
-        <v>2500</v>
-      </c>
-      <c r="H39" t="s">
-        <v>188</v>
-      </c>
-      <c r="I39">
-        <v>780</v>
-      </c>
-      <c r="J39">
-        <v>91</v>
-      </c>
-      <c r="K39" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40">
-        <v>2500</v>
-      </c>
-      <c r="E40">
-        <v>780</v>
-      </c>
-      <c r="G40">
-        <v>2500</v>
-      </c>
-      <c r="H40" t="s">
-        <v>190</v>
-      </c>
-      <c r="I40">
-        <v>587</v>
-      </c>
-      <c r="J40">
-        <v>85</v>
-      </c>
-      <c r="K40" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41">
-        <v>2500</v>
-      </c>
-      <c r="E41">
-        <v>587</v>
-      </c>
-      <c r="G41">
-        <v>2500</v>
-      </c>
-      <c r="H41" t="s">
-        <v>192</v>
-      </c>
-      <c r="I41">
-        <v>1368</v>
-      </c>
-      <c r="J41">
-        <v>103</v>
-      </c>
-      <c r="K41" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>135</v>
-      </c>
-      <c r="D42">
-        <v>2500</v>
-      </c>
-      <c r="E42">
-        <v>1368</v>
-      </c>
-      <c r="G42">
-        <v>2500</v>
-      </c>
-      <c r="H42" t="s">
-        <v>194</v>
-      </c>
-      <c r="I42">
-        <v>386</v>
-      </c>
-      <c r="J42">
-        <v>85</v>
-      </c>
-      <c r="K42" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43">
-        <v>5000</v>
-      </c>
-      <c r="E43">
-        <v>368</v>
-      </c>
-      <c r="G43">
-        <v>5000</v>
-      </c>
-      <c r="H43" t="s">
-        <v>196</v>
-      </c>
-      <c r="I43">
-        <v>2329</v>
-      </c>
-      <c r="J43">
-        <v>85</v>
-      </c>
-      <c r="K43" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>198</v>
-      </c>
-      <c r="D44">
-        <v>5000</v>
-      </c>
-      <c r="E44">
-        <v>2329</v>
-      </c>
-      <c r="G44">
-        <v>5000</v>
-      </c>
-      <c r="H44" t="s">
-        <v>200</v>
-      </c>
-      <c r="I44">
-        <v>757</v>
-      </c>
-      <c r="J44">
-        <v>87</v>
-      </c>
-      <c r="K44" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>199</v>
-      </c>
-      <c r="D45">
-        <v>5000</v>
-      </c>
-      <c r="E45">
-        <v>757</v>
-      </c>
-      <c r="G45">
-        <v>5000</v>
-      </c>
-      <c r="H45" t="s">
-        <v>202</v>
-      </c>
-      <c r="I45">
-        <v>2130</v>
-      </c>
-      <c r="J45">
-        <v>89</v>
-      </c>
-      <c r="K45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>256</v>
-      </c>
-      <c r="D46">
-        <v>5000</v>
-      </c>
-      <c r="E46">
-        <v>2130</v>
-      </c>
-      <c r="G46">
-        <v>5000</v>
-      </c>
-      <c r="H46" t="s">
-        <v>310</v>
-      </c>
-      <c r="I46">
-        <v>2466</v>
-      </c>
-      <c r="J46">
-        <v>94</v>
-      </c>
-      <c r="K46" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>257</v>
-      </c>
       <c r="D47">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="E47">
-        <v>2466</v>
+        <v>1000</v>
       </c>
       <c r="G47">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="H47" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="I47">
-        <v>4834</v>
+        <v>480</v>
       </c>
       <c r="J47">
         <v>89</v>
       </c>
       <c r="K47" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="D48">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="E48">
-        <v>4834</v>
+        <v>1500</v>
       </c>
       <c r="G48">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="H48" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="I48">
-        <v>4898</v>
+        <v>206</v>
       </c>
       <c r="J48">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K48" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>264</v>
+        <v>23</v>
       </c>
       <c r="D49">
-        <v>7500</v>
+        <v>500</v>
       </c>
       <c r="E49">
-        <v>4898</v>
+        <v>2000</v>
       </c>
       <c r="G49">
-        <v>7500</v>
+        <v>500</v>
       </c>
       <c r="H49" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="I49">
-        <v>7440</v>
+        <v>428</v>
       </c>
       <c r="J49">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K49" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>267</v>
+        <v>120</v>
       </c>
       <c r="D50">
-        <v>7500</v>
+        <v>1000</v>
       </c>
       <c r="E50">
-        <v>7440</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>7500</v>
+        <v>1000</v>
       </c>
       <c r="H50" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="I50">
-        <v>7491</v>
+        <v>969</v>
       </c>
       <c r="J50">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K50" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>270</v>
+        <v>122</v>
       </c>
       <c r="D51">
-        <v>7500</v>
+        <v>1000</v>
       </c>
       <c r="E51">
-        <v>7491</v>
+        <v>500</v>
       </c>
       <c r="G51">
-        <v>7500</v>
+        <v>1000</v>
       </c>
       <c r="H51" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="I51">
-        <v>7329</v>
+        <v>225</v>
       </c>
       <c r="J51">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K51" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>273</v>
+        <v>126</v>
       </c>
       <c r="D52">
-        <v>7500</v>
+        <v>1000</v>
       </c>
       <c r="E52">
-        <v>7329</v>
+        <v>1000</v>
       </c>
       <c r="G52">
-        <v>7500</v>
+        <v>1000</v>
       </c>
       <c r="H52" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="I52">
-        <v>7453</v>
+        <v>730</v>
       </c>
       <c r="J52">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K52" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>274</v>
+        <v>127</v>
       </c>
       <c r="D53">
-        <v>7500</v>
+        <v>1000</v>
       </c>
       <c r="E53">
-        <v>7453</v>
+        <v>1500</v>
       </c>
       <c r="G53">
-        <v>7500</v>
+        <v>1000</v>
       </c>
       <c r="H53" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="I53">
-        <v>7396</v>
+        <v>206</v>
       </c>
       <c r="J53">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="K53" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="D54">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="E54">
-        <v>7396</v>
+        <v>2000</v>
       </c>
       <c r="G54">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="H54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I54">
-        <v>9877</v>
+        <v>428</v>
       </c>
       <c r="J54">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="K54" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>326</v>
+        <v>177</v>
       </c>
       <c r="D55">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E55">
-        <v>9877</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="H55" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="I55">
-        <v>9963</v>
+        <v>1253</v>
       </c>
       <c r="J55">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>327</v>
+        <v>178</v>
       </c>
       <c r="D56">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E56">
-        <v>9963</v>
+        <v>500</v>
       </c>
       <c r="G56">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="H56" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="I56">
-        <v>9836</v>
+        <v>225</v>
       </c>
       <c r="J56">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K56" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>328</v>
+        <v>179</v>
       </c>
       <c r="D57">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E57">
-        <v>9836</v>
+        <v>1000</v>
       </c>
       <c r="G57">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="H57" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="I57">
-        <v>9689</v>
+        <v>730</v>
       </c>
       <c r="J57">
         <v>87</v>
       </c>
       <c r="K57" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>329</v>
+        <v>180</v>
       </c>
       <c r="D58">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E58">
-        <v>9689</v>
+        <v>1500</v>
       </c>
       <c r="G58">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="H58" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="I58">
-        <v>9891</v>
+        <v>2292</v>
       </c>
       <c r="J58">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="K58" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>338</v>
+        <v>181</v>
       </c>
       <c r="D59">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="E59">
-        <v>7396</v>
+        <v>2000</v>
       </c>
       <c r="G59">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="H59" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="I59">
-        <v>99958</v>
+        <v>428</v>
       </c>
       <c r="J59">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="K59" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>183</v>
+      </c>
+      <c r="D60">
+        <v>10000</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>10000</v>
+      </c>
+      <c r="H60" t="s">
+        <v>349</v>
+      </c>
+      <c r="I60">
+        <v>1253</v>
+      </c>
+      <c r="J60">
+        <v>89</v>
+      </c>
+      <c r="K60" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61">
+        <v>10000</v>
+      </c>
+      <c r="E61">
+        <v>500</v>
+      </c>
+      <c r="G61">
+        <v>10000</v>
+      </c>
+      <c r="H61" t="s">
+        <v>342</v>
+      </c>
+      <c r="I61">
+        <v>225</v>
+      </c>
+      <c r="J61">
+        <v>81</v>
+      </c>
+      <c r="K61" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62">
+        <v>10000</v>
+      </c>
+      <c r="E62">
+        <v>1000</v>
+      </c>
+      <c r="G62">
+        <v>10000</v>
+      </c>
+      <c r="H62" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A64" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D64" t="s">
-        <v>6</v>
+      <c r="I62">
+        <v>730</v>
+      </c>
+      <c r="J62">
+        <v>87</v>
+      </c>
+      <c r="K62" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>188</v>
+      </c>
+      <c r="D63">
+        <v>10000</v>
+      </c>
+      <c r="E63">
+        <v>1500</v>
+      </c>
+      <c r="G63">
+        <v>10000</v>
+      </c>
+      <c r="H63" t="s">
+        <v>346</v>
+      </c>
+      <c r="I63">
+        <v>2292</v>
+      </c>
+      <c r="J63">
+        <v>87</v>
+      </c>
+      <c r="K63" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64">
+        <v>10000</v>
+      </c>
+      <c r="E64">
+        <v>2000</v>
+      </c>
+      <c r="G64">
+        <v>10000</v>
       </c>
       <c r="H64" t="s">
-        <v>7</v>
+        <v>329</v>
+      </c>
+      <c r="I64">
+        <v>428</v>
+      </c>
+      <c r="J64">
+        <v>102</v>
+      </c>
+      <c r="K64" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D65" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" t="s">
-        <v>2</v>
-      </c>
-      <c r="F65" t="s">
-        <v>205</v>
+      <c r="A65" t="s">
+        <v>190</v>
+      </c>
+      <c r="D65">
+        <v>50000</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>50000</v>
       </c>
       <c r="H65" t="s">
-        <v>10</v>
-      </c>
-      <c r="I65" t="s">
-        <v>8</v>
-      </c>
-      <c r="J65" t="s">
-        <v>9</v>
+        <v>355</v>
+      </c>
+      <c r="I65">
+        <v>1253</v>
+      </c>
+      <c r="J65">
+        <v>89</v>
       </c>
       <c r="K65" t="s">
-        <v>11</v>
-      </c>
-      <c r="L65" t="s">
-        <v>12</v>
-      </c>
-      <c r="M65" t="s">
-        <v>13</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66">
+        <v>50000</v>
+      </c>
+      <c r="E66">
+        <v>500</v>
+      </c>
+      <c r="G66">
+        <v>50000</v>
+      </c>
+      <c r="H66" t="s">
+        <v>342</v>
+      </c>
+      <c r="I66">
+        <v>225</v>
+      </c>
+      <c r="J66">
+        <v>81</v>
+      </c>
+      <c r="K66" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>192</v>
+      </c>
+      <c r="D67">
+        <v>50000</v>
+      </c>
+      <c r="E67">
+        <v>1000</v>
+      </c>
+      <c r="G67">
+        <v>50000</v>
+      </c>
+      <c r="H67" t="s">
+        <v>344</v>
+      </c>
+      <c r="I67">
+        <v>730</v>
+      </c>
+      <c r="J67">
+        <v>87</v>
+      </c>
+      <c r="K67" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>229</v>
+      </c>
+      <c r="D68">
+        <v>50000</v>
+      </c>
+      <c r="E68">
+        <v>1500</v>
+      </c>
+      <c r="G68">
+        <v>50000</v>
+      </c>
+      <c r="H68" t="s">
+        <v>346</v>
+      </c>
+      <c r="I68">
+        <v>2292</v>
+      </c>
+      <c r="J68">
+        <v>87</v>
+      </c>
+      <c r="K68" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>230</v>
+      </c>
+      <c r="D69">
+        <v>50000</v>
+      </c>
+      <c r="E69">
+        <v>2000</v>
+      </c>
+      <c r="G69">
+        <v>50000</v>
+      </c>
+      <c r="H69" t="s">
+        <v>360</v>
+      </c>
+      <c r="I69">
+        <v>428</v>
+      </c>
+      <c r="J69">
+        <v>102</v>
+      </c>
+      <c r="K69" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>231</v>
+      </c>
+      <c r="D70">
+        <v>100000</v>
+      </c>
+      <c r="E70">
+        <v>500</v>
+      </c>
+      <c r="G70">
+        <v>100000</v>
+      </c>
+      <c r="H70" t="s">
+        <v>333</v>
+      </c>
+      <c r="I70">
+        <v>225</v>
+      </c>
+      <c r="J70">
+        <v>81</v>
+      </c>
+      <c r="K70" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>129</v>
+      </c>
+      <c r="H75" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" t="s">
+        <v>8</v>
+      </c>
+      <c r="J75" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75" t="s">
+        <v>11</v>
+      </c>
+      <c r="L75" t="s">
+        <v>12</v>
+      </c>
+      <c r="M75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6041,7 +6833,7 @@
         <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>206</v>
+        <v>130</v>
       </c>
       <c r="I4">
         <v>58</v>
@@ -6050,7 +6842,7 @@
         <v>157</v>
       </c>
       <c r="K4" t="s">
-        <v>207</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -6067,7 +6859,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="I5">
         <v>96</v>
@@ -6076,7 +6868,7 @@
         <v>154</v>
       </c>
       <c r="K5" t="s">
-        <v>209</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -6093,7 +6885,7 @@
         <v>100</v>
       </c>
       <c r="H6" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="I6">
         <v>75</v>
@@ -6102,7 +6894,7 @@
         <v>160</v>
       </c>
       <c r="K6" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -6119,7 +6911,7 @@
         <v>1000</v>
       </c>
       <c r="H7" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="I7">
         <v>853</v>
@@ -6128,7 +6920,7 @@
         <v>153</v>
       </c>
       <c r="K7" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -6145,7 +6937,7 @@
         <v>10000</v>
       </c>
       <c r="H8" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="I8">
         <v>4237</v>
@@ -6154,10 +6946,10 @@
         <v>135</v>
       </c>
       <c r="K8" t="s">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="L8" t="s">
-        <v>216</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="21" x14ac:dyDescent="0.4">
@@ -6211,7 +7003,7 @@
         <v>100</v>
       </c>
       <c r="H14" t="s">
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="I14">
         <v>83</v>
@@ -6220,10 +7012,10 @@
         <v>111</v>
       </c>
       <c r="K14" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>219</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -6240,7 +7032,7 @@
         <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>220</v>
+        <v>144</v>
       </c>
       <c r="I15">
         <v>68</v>
@@ -6249,7 +7041,7 @@
         <v>109</v>
       </c>
       <c r="K15" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -6266,7 +7058,7 @@
         <v>100</v>
       </c>
       <c r="H16" t="s">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="I16">
         <v>95</v>
@@ -6275,7 +7067,7 @@
         <v>107</v>
       </c>
       <c r="K16" t="s">
-        <v>222</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -6292,7 +7084,7 @@
         <v>1000</v>
       </c>
       <c r="H17" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="I17">
         <v>659</v>
@@ -6301,7 +7093,7 @@
         <v>89</v>
       </c>
       <c r="K17" t="s">
-        <v>225</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -6318,7 +7110,7 @@
         <v>10000</v>
       </c>
       <c r="H18" t="s">
-        <v>226</v>
+        <v>150</v>
       </c>
       <c r="I18">
         <v>659</v>
@@ -6327,15 +7119,15 @@
         <v>89</v>
       </c>
       <c r="K18" t="s">
-        <v>227</v>
+        <v>151</v>
       </c>
       <c r="L18" t="s">
-        <v>228</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
@@ -6352,7 +7144,7 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="H22" t="s">
         <v>10</v>
@@ -6501,7 +7293,7 @@
         <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="I4">
         <v>42</v>
@@ -6510,7 +7302,7 @@
         <v>435</v>
       </c>
       <c r="K4" t="s">
-        <v>230</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -6527,7 +7319,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
       <c r="I5">
         <v>77</v>
@@ -6536,7 +7328,7 @@
         <v>409</v>
       </c>
       <c r="K5" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -6553,7 +7345,7 @@
         <v>100</v>
       </c>
       <c r="H6" t="s">
-        <v>233</v>
+        <v>157</v>
       </c>
       <c r="I6">
         <v>77</v>
@@ -6562,7 +7354,7 @@
         <v>430</v>
       </c>
       <c r="K6" t="s">
-        <v>234</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -6579,7 +7371,7 @@
         <v>1000</v>
       </c>
       <c r="H7" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
       <c r="I7">
         <v>77</v>
@@ -6588,7 +7380,7 @@
         <v>409</v>
       </c>
       <c r="K7" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -6605,7 +7397,7 @@
         <v>10000</v>
       </c>
       <c r="H8" t="s">
-        <v>237</v>
+        <v>161</v>
       </c>
       <c r="I8">
         <v>8977</v>
@@ -6614,7 +7406,7 @@
         <v>383</v>
       </c>
       <c r="K8" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -6631,7 +7423,7 @@
         <v>100000</v>
       </c>
       <c r="H9" t="s">
-        <v>238</v>
+        <v>162</v>
       </c>
       <c r="I9">
         <v>98387</v>
@@ -6640,7 +7432,7 @@
         <v>365</v>
       </c>
       <c r="K9" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="21" x14ac:dyDescent="0.4">
@@ -6694,7 +7486,7 @@
         <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="I17">
         <v>89</v>
@@ -6703,10 +7495,10 @@
         <v>312</v>
       </c>
       <c r="K17" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>242</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -6723,7 +7515,7 @@
         <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="I18">
         <v>75</v>
@@ -6732,7 +7524,7 @@
         <v>327</v>
       </c>
       <c r="K18" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -6749,7 +7541,7 @@
         <v>100</v>
       </c>
       <c r="H19" t="s">
-        <v>245</v>
+        <v>169</v>
       </c>
       <c r="I19">
         <v>88</v>
@@ -6758,7 +7550,7 @@
         <v>342</v>
       </c>
       <c r="K19" t="s">
-        <v>246</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -6775,7 +7567,7 @@
         <v>1000</v>
       </c>
       <c r="H20" t="s">
-        <v>247</v>
+        <v>171</v>
       </c>
       <c r="I20">
         <v>451</v>
@@ -6784,7 +7576,7 @@
         <v>252</v>
       </c>
       <c r="K20" t="s">
-        <v>248</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -6801,7 +7593,7 @@
         <v>10000</v>
       </c>
       <c r="H21" t="s">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="I21">
         <v>3757</v>
@@ -6810,15 +7602,15 @@
         <v>210</v>
       </c>
       <c r="K21" t="s">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s">
-        <v>251</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -6873,7 +7665,7 @@
         <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="H35" t="s">
         <v>10</v>

--- a/Trabalho 2/Meta 2/ResultadosJP.xlsx
+++ b/Trabalho 2/Meta 2/ResultadosJP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Documents\GitHub\Projeto-IAA\Trabalho 2\Meta 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22BB6DC-29CC-445C-8612-827210053E61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67666AF-8F39-4AFF-BF8C-CD0AC19703F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="3" xr2:uid="{1C22F075-1BF0-EA43-8A90-9BDC22ECA8ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="4" xr2:uid="{1C22F075-1BF0-EA43-8A90-9BDC22ECA8ED}"/>
   </bookViews>
   <sheets>
     <sheet name="NoObstacles" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="431">
   <si>
     <t>Trepa Colinas</t>
   </si>
@@ -1134,6 +1134,201 @@
   </si>
   <si>
     <t>2384258p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>Funcao de Escalonamento</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>Temp na melhor solução</t>
+  </si>
+  <si>
+    <t>Adaptative Simulated Annealing</t>
+  </si>
+  <si>
+    <t>1 9 8 7 5 6 3 4 2</t>
+  </si>
+  <si>
+    <t>24104535p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 4 9 8 7 5 6 3 2</t>
+  </si>
+  <si>
+    <t>24104748p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 2 4 9 8 7 6 5 3</t>
+  </si>
+  <si>
+    <t>24110007p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 5 7 8 9 4 2 3 6</t>
+  </si>
+  <si>
+    <t>24110134p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 4 7 8 9 2 3 6 5</t>
+  </si>
+  <si>
+    <t>24110323p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>24110539p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>24110626p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>24110712p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>24110827p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>24110852p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>24111023p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>24111119p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>24111204p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>24111221p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>24111330p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>24111410p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>24111638p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>24111847p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>24112204p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>24112510p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>14 4 13 5 7 12 17 2 1 15 10 3 6 9 16 11 8</t>
+  </si>
+  <si>
+    <t>24113217p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 17 15 4 5 7 10 2 14 16 13 8 11 9 12 3 6</t>
+  </si>
+  <si>
+    <t>24113445p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>15 17 14 10 16 13 7 8 11 12 9 4 5 6 3 2 1</t>
+  </si>
+  <si>
+    <t>24113557p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>16 8 11 12 9 14 3 6 7 17 15 2 4 5 13 10 1</t>
+  </si>
+  <si>
+    <t>24114145p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>15 2 11 8 7 16 9 12 6 5 13 3 1 10 4 14 17</t>
+  </si>
+  <si>
+    <t>24114355p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 10 3 6 7 5 13 14 17 15 2 4 16 12 9 11 8</t>
+  </si>
+  <si>
+    <t>24114456p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 15 17 13 5 3 10 2 14 4 16 12 9 11 8 7 6</t>
+  </si>
+  <si>
+    <t>24114804p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>15 17 2 14 4 13 7 8 11 9 12 16 5 6 3 10 1</t>
+  </si>
+  <si>
+    <t>24115140p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 16 12 9 11 8 7 6 5 13 4 14 2 17 15 1 10</t>
+  </si>
+  <si>
+    <t>24115314p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 5 11 8 7 6 9 12 16 13 4 14 2 17 15 1 10</t>
+  </si>
+  <si>
+    <t>24115422p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>24115913p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>25120116a.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>25120303a.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>25120441a.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 6 5 7 8 11 12 9 16 13 4 14 2 17 15 1 10</t>
+  </si>
+  <si>
+    <t>25120601a.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 10 13 5 3 6 7 8 11 12 9 16 4 14 2 17 15</t>
+  </si>
+  <si>
+    <t>25122324a.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 6 7 5 13 14 2 4 12 9 8 11 16 10 1 15 17</t>
+  </si>
+  <si>
+    <t>25122658a.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 10 1 15 17 2 14 4 13 16 9 12 11 8 7 6 5</t>
+  </si>
+  <si>
+    <t>25122909a.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 10 1 15 17 2 14 4 16 9 12 11 8 7 6 5 13</t>
+  </si>
+  <si>
+    <t>25123259a.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 5 13 4 10 1 15 17 2 14 16 9 12 6 7 8 11</t>
+  </si>
+  <si>
+    <t>25123437a.m._SimulatedAnnealingOptimiser.csv</t>
   </si>
 </sst>
 </file>
@@ -1183,9 +1378,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3448,15 +3644,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35482D3B-BB67-AC4D-83E5-7AF77605C8BE}">
-  <dimension ref="A1:N89"/>
+  <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80:H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="19.69921875" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="15.59765625" customWidth="1"/>
+    <col min="6" max="6" width="18.296875" customWidth="1"/>
+    <col min="7" max="7" width="27.69921875" customWidth="1"/>
+    <col min="8" max="8" width="15.8984375" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="19.3984375" customWidth="1"/>
+    <col min="11" max="11" width="21.3984375" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
+    <col min="13" max="13" width="20.5" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" customWidth="1"/>
+    <col min="15" max="15" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
@@ -4786,7 +4993,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>180</v>
       </c>
@@ -4812,7 +5019,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>181</v>
       </c>
@@ -4841,7 +5048,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>183</v>
       </c>
@@ -4867,18 +5074,18 @@
         <v>365</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D77" t="s">
         <v>6</v>
       </c>
-      <c r="H77" t="s">
+      <c r="J77" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>5</v>
       </c>
@@ -4888,73 +5095,792 @@
       <c r="F78" t="s">
         <v>129</v>
       </c>
+      <c r="G78" t="s">
+        <v>366</v>
+      </c>
       <c r="H78" t="s">
+        <v>367</v>
+      </c>
+      <c r="J78" t="s">
         <v>10</v>
       </c>
-      <c r="I78" t="s">
+      <c r="K78" t="s">
+        <v>368</v>
+      </c>
+      <c r="L78" t="s">
         <v>8</v>
       </c>
-      <c r="J78" t="s">
+      <c r="M78" t="s">
         <v>9</v>
       </c>
-      <c r="K78" t="s">
+      <c r="N78" t="s">
         <v>11</v>
       </c>
-      <c r="L78" t="s">
+      <c r="O78" t="s">
         <v>12</v>
       </c>
-      <c r="M78" t="s">
+      <c r="P78" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <v>100</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>100000</v>
+      </c>
+      <c r="G80" t="s">
+        <v>369</v>
+      </c>
+      <c r="H80">
+        <v>0.5</v>
+      </c>
+      <c r="J80">
+        <v>100</v>
+      </c>
+      <c r="K80">
+        <v>0.19073490000000001</v>
+      </c>
+      <c r="L80" t="s">
+        <v>370</v>
+      </c>
+      <c r="M80">
+        <v>46</v>
+      </c>
+      <c r="N80">
+        <v>73</v>
+      </c>
+      <c r="O80" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <v>100</v>
+      </c>
+      <c r="E81">
+        <v>500</v>
+      </c>
+      <c r="F81">
+        <v>100000</v>
+      </c>
+      <c r="G81" t="s">
+        <v>369</v>
+      </c>
+      <c r="H81">
+        <v>0.5</v>
+      </c>
+      <c r="J81">
+        <v>100</v>
+      </c>
+      <c r="K81">
+        <v>4.7683719999999999E-2</v>
+      </c>
+      <c r="L81" t="s">
+        <v>372</v>
+      </c>
+      <c r="M81">
+        <v>69</v>
+      </c>
+      <c r="N81">
+        <v>69</v>
+      </c>
+      <c r="O81" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <v>100</v>
+      </c>
+      <c r="E82">
+        <v>1000</v>
+      </c>
+      <c r="F82">
+        <v>100000</v>
+      </c>
+      <c r="G82" t="s">
+        <v>369</v>
+      </c>
+      <c r="H82">
+        <v>0.5</v>
+      </c>
+      <c r="J82">
+        <v>100</v>
+      </c>
+      <c r="K82">
+        <v>5.9604640000000004E-3</v>
+      </c>
+      <c r="L82" t="s">
+        <v>374</v>
+      </c>
+      <c r="M82">
+        <v>60</v>
+      </c>
+      <c r="N82">
+        <v>65</v>
+      </c>
+      <c r="O82" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D83">
+        <v>100</v>
+      </c>
+      <c r="E83">
+        <v>1500</v>
+      </c>
+      <c r="F83">
+        <v>100000</v>
+      </c>
+      <c r="G83" t="s">
+        <v>369</v>
+      </c>
+      <c r="H83">
+        <v>0.5</v>
+      </c>
+      <c r="J83">
+        <v>100</v>
+      </c>
+      <c r="K83">
+        <v>2.3841859999999999E-2</v>
+      </c>
+      <c r="L83" t="s">
+        <v>376</v>
+      </c>
+      <c r="M83">
+        <v>27</v>
+      </c>
+      <c r="N83">
+        <v>75</v>
+      </c>
+      <c r="O83" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <v>100</v>
+      </c>
+      <c r="E84">
+        <v>2000</v>
+      </c>
+      <c r="F84">
+        <v>100000</v>
+      </c>
+      <c r="G84" t="s">
+        <v>369</v>
+      </c>
+      <c r="H84">
+        <v>0.5</v>
+      </c>
+      <c r="J84">
+        <v>100</v>
+      </c>
+      <c r="K84" s="2">
+        <v>7.2759580000000004E-7</v>
+      </c>
+      <c r="L84" t="s">
+        <v>378</v>
+      </c>
+      <c r="M84">
+        <v>95</v>
+      </c>
+      <c r="N84">
+        <v>81</v>
+      </c>
+      <c r="O84" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <v>500</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>100000</v>
+      </c>
+      <c r="G85" t="s">
+        <v>369</v>
+      </c>
+      <c r="H85">
+        <v>0.5</v>
+      </c>
+      <c r="J85">
+        <v>500</v>
+      </c>
+      <c r="K85">
+        <v>0.19073490000000001</v>
+      </c>
+      <c r="L85" t="s">
+        <v>370</v>
+      </c>
+      <c r="M85">
+        <v>46</v>
+      </c>
+      <c r="N85">
+        <v>73</v>
+      </c>
+      <c r="O85" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D86">
+        <v>500</v>
+      </c>
+      <c r="E86">
+        <v>500</v>
+      </c>
+      <c r="F86">
+        <v>100000</v>
+      </c>
+      <c r="G86" t="s">
+        <v>369</v>
+      </c>
+      <c r="H86">
+        <v>0.5</v>
+      </c>
+      <c r="J86">
+        <v>500</v>
+      </c>
+      <c r="K86">
+        <v>4.7683719999999999E-2</v>
+      </c>
+      <c r="L86" t="s">
+        <v>372</v>
+      </c>
+      <c r="M86">
+        <v>69</v>
+      </c>
+      <c r="N86">
+        <v>69</v>
+      </c>
+      <c r="O86" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D87">
+        <v>500</v>
+      </c>
+      <c r="E87">
+        <v>1000</v>
+      </c>
+      <c r="F87">
+        <v>100000</v>
+      </c>
+      <c r="G87" t="s">
+        <v>369</v>
+      </c>
+      <c r="H87">
+        <v>0.5</v>
+      </c>
+      <c r="J87">
+        <v>500</v>
+      </c>
+      <c r="K87">
+        <v>2.9802320000000002E-3</v>
+      </c>
+      <c r="L87" t="s">
+        <v>187</v>
+      </c>
+      <c r="M87">
+        <v>115</v>
+      </c>
+      <c r="N87">
+        <v>63</v>
+      </c>
+      <c r="O87" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D88">
+        <v>500</v>
+      </c>
+      <c r="E88">
+        <v>1500</v>
+      </c>
+      <c r="F88">
+        <v>100000</v>
+      </c>
+      <c r="G88" t="s">
+        <v>369</v>
+      </c>
+      <c r="H88">
+        <v>0.5</v>
+      </c>
+      <c r="J88">
+        <v>500</v>
+      </c>
+      <c r="K88">
+        <v>2.3841859999999999E-2</v>
+      </c>
+      <c r="L88" t="s">
+        <v>376</v>
+      </c>
+      <c r="M88">
+        <v>27</v>
+      </c>
+      <c r="N88">
+        <v>75</v>
+      </c>
+      <c r="O88" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>23</v>
+      </c>
+      <c r="D89">
+        <v>500</v>
+      </c>
+      <c r="E89">
+        <v>2000</v>
+      </c>
+      <c r="F89">
+        <v>100000</v>
+      </c>
+      <c r="G89" t="s">
+        <v>369</v>
+      </c>
+      <c r="H89">
+        <v>0.5</v>
+      </c>
+      <c r="J89">
+        <v>500</v>
+      </c>
+      <c r="K89" s="2">
+        <v>3.5527139999999999E-10</v>
+      </c>
+      <c r="L89" t="s">
+        <v>372</v>
+      </c>
+      <c r="M89">
+        <v>212</v>
+      </c>
+      <c r="N89">
+        <v>69</v>
+      </c>
+      <c r="O89" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>120</v>
+      </c>
+      <c r="D90">
+        <v>1000</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>100000</v>
+      </c>
+      <c r="G90" t="s">
+        <v>369</v>
+      </c>
+      <c r="H90">
+        <v>0.5</v>
+      </c>
+      <c r="J90">
+        <v>10000</v>
+      </c>
+      <c r="K90">
+        <v>0.19073490000000001</v>
+      </c>
+      <c r="L90" t="s">
+        <v>370</v>
+      </c>
+      <c r="M90">
+        <v>46</v>
+      </c>
+      <c r="N90">
+        <v>73</v>
+      </c>
+      <c r="O90" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>122</v>
+      </c>
+      <c r="D91">
+        <v>1000</v>
+      </c>
+      <c r="E91">
+        <v>500</v>
+      </c>
+      <c r="F91">
+        <v>100000</v>
+      </c>
+      <c r="G91" t="s">
+        <v>369</v>
+      </c>
+      <c r="H91">
+        <v>0.5</v>
+      </c>
+      <c r="J91">
+        <v>10000</v>
+      </c>
+      <c r="K91">
+        <v>4.7683719999999999E-2</v>
+      </c>
+      <c r="L91" t="s">
+        <v>372</v>
+      </c>
+      <c r="M91">
+        <v>69</v>
+      </c>
+      <c r="N91">
+        <v>69</v>
+      </c>
+      <c r="O91" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>126</v>
+      </c>
+      <c r="D92">
+        <v>1000</v>
+      </c>
+      <c r="E92">
+        <v>1000</v>
+      </c>
+      <c r="F92">
+        <v>100000</v>
+      </c>
+      <c r="G92" t="s">
+        <v>369</v>
+      </c>
+      <c r="H92">
+        <v>0.5</v>
+      </c>
+      <c r="J92">
+        <v>10000</v>
+      </c>
+      <c r="K92">
+        <v>2.9802320000000002E-3</v>
+      </c>
+      <c r="L92" t="s">
+        <v>187</v>
+      </c>
+      <c r="M92">
+        <v>115</v>
+      </c>
+      <c r="N92">
+        <v>63</v>
+      </c>
+      <c r="O92" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>127</v>
+      </c>
+      <c r="D93">
+        <v>1000</v>
+      </c>
+      <c r="E93">
+        <v>1500</v>
+      </c>
+      <c r="F93">
+        <v>100000</v>
+      </c>
+      <c r="G93" t="s">
+        <v>369</v>
+      </c>
+      <c r="H93">
+        <v>0.5</v>
+      </c>
+      <c r="J93">
+        <v>10000</v>
+      </c>
+      <c r="K93">
+        <v>2.3841859999999999E-2</v>
+      </c>
+      <c r="L93" t="s">
+        <v>376</v>
+      </c>
+      <c r="M93">
+        <v>27</v>
+      </c>
+      <c r="N93">
+        <v>75</v>
+      </c>
+      <c r="O93" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>176</v>
+      </c>
+      <c r="D94">
+        <v>1000</v>
+      </c>
+      <c r="E94">
+        <v>2000</v>
+      </c>
+      <c r="F94">
+        <v>100000</v>
+      </c>
+      <c r="G94" t="s">
+        <v>369</v>
+      </c>
+      <c r="H94">
+        <v>0.5</v>
+      </c>
+      <c r="J94">
+        <v>10000</v>
+      </c>
+      <c r="K94" s="2">
+        <v>3.5527139999999999E-10</v>
+      </c>
+      <c r="L94" t="s">
+        <v>372</v>
+      </c>
+      <c r="M94">
+        <v>212</v>
+      </c>
+      <c r="N94">
+        <v>69</v>
+      </c>
+      <c r="O94" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>177</v>
+      </c>
+      <c r="D95">
+        <v>5000</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>100000</v>
+      </c>
+      <c r="G95" t="s">
+        <v>369</v>
+      </c>
+      <c r="H95">
+        <v>0.5</v>
+      </c>
+      <c r="J95">
+        <v>5000</v>
+      </c>
+      <c r="K95">
+        <v>4.7683719999999999E-2</v>
+      </c>
+      <c r="L95" t="s">
+        <v>370</v>
+      </c>
+      <c r="M95">
+        <v>3634</v>
+      </c>
+      <c r="N95">
+        <v>73</v>
+      </c>
+      <c r="O95" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>178</v>
+      </c>
+      <c r="D96">
+        <v>5000</v>
+      </c>
+      <c r="E96">
+        <v>500</v>
+      </c>
+      <c r="F96">
+        <v>100000</v>
+      </c>
+      <c r="G96" t="s">
+        <v>369</v>
+      </c>
+      <c r="H96">
+        <v>0.5</v>
+      </c>
+      <c r="J96">
+        <v>5000</v>
+      </c>
+      <c r="K96">
+        <v>4.7683719999999999E-2</v>
+      </c>
+      <c r="L96" t="s">
+        <v>372</v>
+      </c>
+      <c r="M96">
+        <v>69</v>
+      </c>
+      <c r="N96">
+        <v>69</v>
+      </c>
+      <c r="O96" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>179</v>
+      </c>
+      <c r="D97">
+        <v>5000</v>
+      </c>
+      <c r="E97">
+        <v>1000</v>
+      </c>
+      <c r="F97">
+        <v>100000</v>
+      </c>
+      <c r="G97" t="s">
+        <v>369</v>
+      </c>
+      <c r="H97">
+        <v>0.5</v>
+      </c>
+      <c r="J97">
+        <v>5000</v>
+      </c>
+      <c r="K97">
+        <v>2.9802320000000002E-3</v>
+      </c>
+      <c r="L97" t="s">
+        <v>187</v>
+      </c>
+      <c r="M97">
+        <v>115</v>
+      </c>
+      <c r="N97">
+        <v>63</v>
+      </c>
+      <c r="O97" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>180</v>
+      </c>
+      <c r="D98">
+        <v>5000</v>
+      </c>
+      <c r="E98">
+        <v>1500</v>
+      </c>
+      <c r="F98">
+        <v>100000</v>
+      </c>
+      <c r="G98" t="s">
+        <v>369</v>
+      </c>
+      <c r="H98">
+        <v>0.5</v>
+      </c>
+      <c r="J98">
+        <v>5000</v>
+      </c>
+      <c r="K98">
+        <v>2.3841859999999999E-2</v>
+      </c>
+      <c r="L98" t="s">
+        <v>376</v>
+      </c>
+      <c r="M98">
+        <v>27</v>
+      </c>
+      <c r="N98">
+        <v>75</v>
+      </c>
+      <c r="O98" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>181</v>
+      </c>
+      <c r="D99">
+        <v>5000</v>
+      </c>
+      <c r="E99">
+        <v>2000</v>
+      </c>
+      <c r="F99">
+        <v>100000</v>
+      </c>
+      <c r="G99" t="s">
+        <v>369</v>
+      </c>
+      <c r="H99">
+        <v>0.5</v>
+      </c>
+      <c r="J99">
+        <v>5000</v>
+      </c>
+      <c r="K99" s="2">
+        <v>3.5527139999999999E-10</v>
+      </c>
+      <c r="L99" t="s">
+        <v>372</v>
+      </c>
+      <c r="M99">
+        <v>212</v>
+      </c>
+      <c r="N99">
+        <v>69</v>
+      </c>
+      <c r="O99" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -4965,21 +5891,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C91D61-F5E8-A647-82E8-F0EDF9A7AD79}">
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N91" sqref="N91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="15.09765625" customWidth="1"/>
+    <col min="6" max="6" width="18.59765625" customWidth="1"/>
+    <col min="7" max="7" width="28.8984375" customWidth="1"/>
     <col min="8" max="8" width="35.09765625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="12.3984375" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="33.09765625" customWidth="1"/>
+    <col min="12" max="12" width="33.59765625" customWidth="1"/>
+    <col min="13" max="13" width="19.59765625" customWidth="1"/>
+    <col min="14" max="14" width="13.69921875" customWidth="1"/>
+    <col min="15" max="15" width="33.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
@@ -6509,7 +7440,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>190</v>
       </c>
@@ -6535,7 +7466,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>191</v>
       </c>
@@ -6561,7 +7492,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>192</v>
       </c>
@@ -6587,7 +7518,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>229</v>
       </c>
@@ -6613,7 +7544,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>230</v>
       </c>
@@ -6639,7 +7570,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>231</v>
       </c>
@@ -6665,18 +7596,18 @@
         <v>362</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D74" t="s">
         <v>6</v>
       </c>
-      <c r="H74" t="s">
+      <c r="J74" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
         <v>5</v>
       </c>
@@ -6686,73 +7617,792 @@
       <c r="F75" t="s">
         <v>129</v>
       </c>
+      <c r="G75" t="s">
+        <v>366</v>
+      </c>
       <c r="H75" t="s">
+        <v>367</v>
+      </c>
+      <c r="J75" t="s">
         <v>10</v>
       </c>
-      <c r="I75" t="s">
+      <c r="K75" t="s">
+        <v>368</v>
+      </c>
+      <c r="L75" t="s">
         <v>8</v>
       </c>
-      <c r="J75" t="s">
+      <c r="M75" t="s">
         <v>9</v>
       </c>
-      <c r="K75" t="s">
+      <c r="N75" t="s">
         <v>11</v>
       </c>
-      <c r="L75" t="s">
+      <c r="O75" t="s">
         <v>12</v>
       </c>
-      <c r="M75" t="s">
+      <c r="P75" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D77">
+        <v>100</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>100000</v>
+      </c>
+      <c r="G77" t="s">
+        <v>369</v>
+      </c>
+      <c r="H77">
+        <v>0.5</v>
+      </c>
+      <c r="J77">
+        <v>100</v>
+      </c>
+      <c r="K77">
+        <v>7.4505809999999997E-4</v>
+      </c>
+      <c r="L77" t="s">
+        <v>395</v>
+      </c>
+      <c r="M77">
+        <v>67</v>
+      </c>
+      <c r="N77">
+        <v>137</v>
+      </c>
+      <c r="O77" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D78">
+        <v>100</v>
+      </c>
+      <c r="E78">
+        <v>500</v>
+      </c>
+      <c r="F78">
+        <v>100000</v>
+      </c>
+      <c r="G78" t="s">
+        <v>369</v>
+      </c>
+      <c r="H78">
+        <v>0.5</v>
+      </c>
+      <c r="J78">
+        <v>100</v>
+      </c>
+      <c r="K78" s="2">
+        <v>4.6566130000000003E-5</v>
+      </c>
+      <c r="L78" t="s">
+        <v>397</v>
+      </c>
+      <c r="M78">
+        <v>97</v>
+      </c>
+      <c r="N78">
+        <v>129</v>
+      </c>
+      <c r="O78" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D79">
+        <v>100</v>
+      </c>
+      <c r="E79">
+        <v>1000</v>
+      </c>
+      <c r="F79">
+        <v>100000</v>
+      </c>
+      <c r="G79" t="s">
+        <v>369</v>
+      </c>
+      <c r="H79">
+        <v>0.5</v>
+      </c>
+      <c r="J79">
+        <v>100</v>
+      </c>
+      <c r="K79" s="2">
+        <v>2.3283060000000001E-5</v>
+      </c>
+      <c r="L79" t="s">
+        <v>399</v>
+      </c>
+      <c r="M79">
+        <v>90</v>
+      </c>
+      <c r="N79">
+        <v>120</v>
+      </c>
+      <c r="O79" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <v>100</v>
+      </c>
+      <c r="E80">
+        <v>1500</v>
+      </c>
+      <c r="F80">
+        <v>100000</v>
+      </c>
+      <c r="G80" t="s">
+        <v>369</v>
+      </c>
+      <c r="H80">
+        <v>0.5</v>
+      </c>
+      <c r="J80">
+        <v>100</v>
+      </c>
+      <c r="K80" s="2">
+        <v>1.8189889999999999E-7</v>
+      </c>
+      <c r="L80" t="s">
+        <v>401</v>
+      </c>
+      <c r="M80">
+        <v>86</v>
+      </c>
+      <c r="N80">
+        <v>140</v>
+      </c>
+      <c r="O80" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <v>100</v>
+      </c>
+      <c r="E81">
+        <v>2000</v>
+      </c>
+      <c r="F81">
+        <v>100000</v>
+      </c>
+      <c r="G81" t="s">
+        <v>369</v>
+      </c>
+      <c r="H81">
+        <v>0.5</v>
+      </c>
+      <c r="J81">
+        <v>100</v>
+      </c>
+      <c r="K81">
+        <v>3.7252900000000002E-4</v>
+      </c>
+      <c r="L81" t="s">
+        <v>403</v>
+      </c>
+      <c r="M81">
+        <v>84</v>
+      </c>
+      <c r="N81">
+        <v>127</v>
+      </c>
+      <c r="O81" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <v>1000</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>100000</v>
+      </c>
+      <c r="G82" t="s">
+        <v>369</v>
+      </c>
+      <c r="H82">
+        <v>0.5</v>
+      </c>
+      <c r="J82">
+        <v>1000</v>
+      </c>
+      <c r="K82" s="2">
+        <v>1.421085E-9</v>
+      </c>
+      <c r="L82" t="s">
+        <v>405</v>
+      </c>
+      <c r="M82">
+        <v>297</v>
+      </c>
+      <c r="N82">
+        <v>89</v>
+      </c>
+      <c r="O82" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D83">
+        <v>1000</v>
+      </c>
+      <c r="E83">
+        <v>500</v>
+      </c>
+      <c r="F83">
+        <v>100000</v>
+      </c>
+      <c r="G83" t="s">
+        <v>369</v>
+      </c>
+      <c r="H83">
+        <v>0.5</v>
+      </c>
+      <c r="J83">
+        <v>1000</v>
+      </c>
+      <c r="K83" s="2">
+        <v>1.110223E-11</v>
+      </c>
+      <c r="L83" t="s">
+        <v>407</v>
+      </c>
+      <c r="M83">
+        <v>477</v>
+      </c>
+      <c r="N83">
+        <v>95</v>
+      </c>
+      <c r="O83" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <v>1000</v>
+      </c>
+      <c r="E84">
+        <v>1000</v>
+      </c>
+      <c r="F84">
+        <v>100000</v>
+      </c>
+      <c r="G84" t="s">
+        <v>369</v>
+      </c>
+      <c r="H84">
+        <v>0.5</v>
+      </c>
+      <c r="J84">
+        <v>1000</v>
+      </c>
+      <c r="K84" s="2">
+        <v>2.2737369999999999E-8</v>
+      </c>
+      <c r="L84" t="s">
+        <v>409</v>
+      </c>
+      <c r="M84">
+        <v>387</v>
+      </c>
+      <c r="N84">
+        <v>92</v>
+      </c>
+      <c r="O84" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <v>1000</v>
+      </c>
+      <c r="E85">
+        <v>1500</v>
+      </c>
+      <c r="F85">
+        <v>100000</v>
+      </c>
+      <c r="G85" t="s">
+        <v>369</v>
+      </c>
+      <c r="H85">
+        <v>0.5</v>
+      </c>
+      <c r="J85">
+        <v>1000</v>
+      </c>
+      <c r="K85" s="2">
+        <v>8.470329E-17</v>
+      </c>
+      <c r="L85" t="s">
+        <v>411</v>
+      </c>
+      <c r="M85">
+        <v>969</v>
+      </c>
+      <c r="N85">
+        <v>85</v>
+      </c>
+      <c r="O85" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>23</v>
+      </c>
+      <c r="D86">
+        <v>1000</v>
+      </c>
+      <c r="E86">
+        <v>2000</v>
+      </c>
+      <c r="F86">
+        <v>100000</v>
+      </c>
+      <c r="G86" t="s">
+        <v>369</v>
+      </c>
+      <c r="H86">
+        <v>0.5</v>
+      </c>
+      <c r="J86">
+        <v>1000</v>
+      </c>
+      <c r="K86" s="2">
+        <v>4.3368089999999999E-14</v>
+      </c>
+      <c r="L86" t="s">
+        <v>413</v>
+      </c>
+      <c r="M86">
+        <v>820</v>
+      </c>
+      <c r="N86">
+        <v>91</v>
+      </c>
+      <c r="O86" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>120</v>
+      </c>
+      <c r="D87">
+        <v>5000</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>100000</v>
+      </c>
+      <c r="G87" t="s">
+        <v>369</v>
+      </c>
+      <c r="H87">
+        <v>0.5</v>
+      </c>
+      <c r="J87">
+        <v>5000</v>
+      </c>
+      <c r="K87" s="2">
+        <v>1.421085E-9</v>
+      </c>
+      <c r="L87" t="s">
+        <v>405</v>
+      </c>
+      <c r="M87">
+        <v>297</v>
+      </c>
+      <c r="N87">
+        <v>89</v>
+      </c>
+      <c r="O87" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>122</v>
+      </c>
+      <c r="D88">
+        <v>5000</v>
+      </c>
+      <c r="E88">
+        <v>500</v>
+      </c>
+      <c r="F88">
+        <v>100000</v>
+      </c>
+      <c r="G88" t="s">
+        <v>369</v>
+      </c>
+      <c r="H88">
+        <v>0.5</v>
+      </c>
+      <c r="J88">
+        <v>5000</v>
+      </c>
+      <c r="K88" s="2">
+        <v>1.110223E-11</v>
+      </c>
+      <c r="L88" t="s">
+        <v>407</v>
+      </c>
+      <c r="M88">
+        <v>477</v>
+      </c>
+      <c r="N88">
+        <v>95</v>
+      </c>
+      <c r="O88" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>126</v>
+      </c>
+      <c r="D89">
+        <v>5000</v>
+      </c>
+      <c r="E89">
+        <v>1000</v>
+      </c>
+      <c r="F89">
+        <v>100000</v>
+      </c>
+      <c r="G89" t="s">
+        <v>369</v>
+      </c>
+      <c r="H89">
+        <v>0.5</v>
+      </c>
+      <c r="J89">
+        <v>5000</v>
+      </c>
+      <c r="K89" s="2">
+        <v>2.2737369999999999E-8</v>
+      </c>
+      <c r="L89" t="s">
+        <v>409</v>
+      </c>
+      <c r="M89">
+        <v>387</v>
+      </c>
+      <c r="N89">
+        <v>92</v>
+      </c>
+      <c r="O89" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>127</v>
+      </c>
+      <c r="D90">
+        <v>5000</v>
+      </c>
+      <c r="E90">
+        <v>1500</v>
+      </c>
+      <c r="F90">
+        <v>100000</v>
+      </c>
+      <c r="G90" t="s">
+        <v>369</v>
+      </c>
+      <c r="H90">
+        <v>0.5</v>
+      </c>
+      <c r="J90">
+        <v>5000</v>
+      </c>
+      <c r="K90" s="2">
+        <v>8.470329E-17</v>
+      </c>
+      <c r="L90" t="s">
+        <v>411</v>
+      </c>
+      <c r="M90">
+        <v>969</v>
+      </c>
+      <c r="N90">
+        <v>85</v>
+      </c>
+      <c r="O90" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>176</v>
+      </c>
+      <c r="D91">
+        <v>5000</v>
+      </c>
+      <c r="E91">
+        <v>2000</v>
+      </c>
+      <c r="F91">
+        <v>100000</v>
+      </c>
+      <c r="G91" t="s">
+        <v>369</v>
+      </c>
+      <c r="H91">
+        <v>0.5</v>
+      </c>
+      <c r="J91">
+        <v>5000</v>
+      </c>
+      <c r="K91" s="2">
+        <v>4.2351649999999999E-17</v>
+      </c>
+      <c r="L91" t="s">
+        <v>419</v>
+      </c>
+      <c r="M91">
+        <v>1093</v>
+      </c>
+      <c r="N91">
+        <v>77</v>
+      </c>
+      <c r="O91" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>177</v>
+      </c>
+      <c r="D92">
+        <v>5000</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>100000</v>
+      </c>
+      <c r="G92" t="s">
+        <v>369</v>
+      </c>
+      <c r="H92">
+        <v>0.98</v>
+      </c>
+      <c r="J92">
+        <v>5000</v>
+      </c>
+      <c r="K92">
+        <v>1.2456069999999999</v>
+      </c>
+      <c r="L92" t="s">
+        <v>421</v>
+      </c>
+      <c r="M92">
+        <v>1697</v>
+      </c>
+      <c r="N92">
+        <v>85</v>
+      </c>
+      <c r="O92" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>178</v>
+      </c>
+      <c r="D93">
+        <v>5000</v>
+      </c>
+      <c r="E93">
+        <v>500</v>
+      </c>
+      <c r="F93">
+        <v>100000</v>
+      </c>
+      <c r="G93" t="s">
+        <v>369</v>
+      </c>
+      <c r="H93">
+        <v>0.98</v>
+      </c>
+      <c r="J93">
+        <v>5000</v>
+      </c>
+      <c r="K93">
+        <v>0.83157769999999998</v>
+      </c>
+      <c r="L93" t="s">
+        <v>423</v>
+      </c>
+      <c r="M93">
+        <v>1384</v>
+      </c>
+      <c r="N93">
+        <v>99</v>
+      </c>
+      <c r="O93" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>179</v>
+      </c>
+      <c r="D94">
+        <v>5000</v>
+      </c>
+      <c r="E94">
+        <v>1000</v>
+      </c>
+      <c r="F94">
+        <v>100000</v>
+      </c>
+      <c r="G94" t="s">
+        <v>369</v>
+      </c>
+      <c r="H94">
+        <v>0.98</v>
+      </c>
+      <c r="J94">
+        <v>5000</v>
+      </c>
+      <c r="K94">
+        <v>1.059717</v>
+      </c>
+      <c r="L94" t="s">
+        <v>425</v>
+      </c>
+      <c r="M94">
+        <v>1582</v>
+      </c>
+      <c r="N94">
+        <v>79</v>
+      </c>
+      <c r="O94" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>180</v>
+      </c>
+      <c r="D95">
+        <v>5000</v>
+      </c>
+      <c r="E95">
+        <v>1500</v>
+      </c>
+      <c r="F95">
+        <v>100000</v>
+      </c>
+      <c r="G95" t="s">
+        <v>369</v>
+      </c>
+      <c r="H95">
+        <v>0.98</v>
+      </c>
+      <c r="J95">
+        <v>5000</v>
+      </c>
+      <c r="K95">
+        <v>1.017752</v>
+      </c>
+      <c r="L95" t="s">
+        <v>427</v>
+      </c>
+      <c r="M95">
+        <v>2137</v>
+      </c>
+      <c r="N95">
+        <v>81</v>
+      </c>
+      <c r="O95" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>181</v>
+      </c>
+      <c r="D96">
+        <v>5000</v>
+      </c>
+      <c r="E96">
+        <v>2000</v>
+      </c>
+      <c r="F96">
+        <v>100000</v>
+      </c>
+      <c r="G96" t="s">
+        <v>369</v>
+      </c>
+      <c r="H96">
+        <v>0.98</v>
+      </c>
+      <c r="J96">
+        <v>5000</v>
+      </c>
+      <c r="K96">
+        <v>0.6141778</v>
+      </c>
+      <c r="L96" t="s">
+        <v>429</v>
+      </c>
+      <c r="M96">
+        <v>3691</v>
+      </c>
+      <c r="N96">
+        <v>89</v>
+      </c>
+      <c r="O96" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -7225,7 +8875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD78113-BF29-4DE2-BB0B-C375FBE02098}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
